--- a/inputs-files/workflow/02 – products_cleaned.xlsx
+++ b/inputs-files/workflow/02 – products_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,62 +468,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Professional Black and White Photography Course | Coventry</t>
+          <t>Lightroom Courses for Beginners Photo Editing - Coventry</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enter the date of the event on Customer Information Notes Field when you go through the checkout process. Black and White Photography Course for beginners</t>
+          <t>For those who want to implement the best workflow for image management and all the dos and don'ts of post-production with these Photo Editing Classes with LightroomAdobe Lightroom Classic Courses for Beginners - CoventrySummaryLocation: 45 Hathaway Road, Tile Hill Village, Coventry, CV4 9HWDuration: 3 Weekly 2hr Evening Classes - All evening classes are from 19:00 to 21:00Participants: Max 3Lightroom Courses Event Details: Editing CourseCoventry 3 wks - Tue 4 Nov - 18 Nov 2025Coventry 3 wks - Wed 7 Jan - 21 Jan 2026Coventry 3 wks - Thu 5 Mar - 19 Mar 2026Coventry 3 wks - Wed 13 May - 27 May 2026Experience - Level: BeginnersThe beginners Lightroom photo editing classes are aimed at anyone wishing to learn photo editing and photo management with a workflow and consistencyEquipment Needed:You will need a laptop with Adobe Lightroom Classic subscription and the App installedAlan will provide you with training Lightroom Library with images and use that to explain and then demonstrate the various tools</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/b8c2a6b2-9a51-492d-a6c0-b685f5e16cc2/Beginners+Photography+Classes.png</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/fe40a5e1-7fa2-4057-982e-555479b97022/Lightroom+courses+-+photo+editing+course.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/black-and-white-photography-course</t>
+          <t>https://www.alanranger.com/photography-services-near-me/lightroom-courses-for-beginners-coventry</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>photography-courses</t>
+          <t>photography-classes, photography-courses, photo editing, lightroom</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lightroom Courses for Beginners Photo Editing - Coventry</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>For those who want to implement the best workflow for image management and all the dos and don'ts of post-production with these Photo Editing Classes with LightroomAdobe Lightroom Classic Courses for Beginners - CoventrySummaryLocation: 45 Hathaway Road, Tile Hill Village, Coventry, CV4 9HWDuration: 3 Weekly 2hr Evening Classes - All evening classes are from 19:00 to 21:00Participants: Max 3Lightroom Courses Event Details: Editing CourseCoventry 3 wks - Tue 4 Nov - 18 Nov 2025Coventry 3 wks - Wed 7 Jan - 21 Jan 2026Coventry 3 wks - Thu 5 Mar - 19 Mar 2026Coventry 3 wks - Wed 13 May - 27 May 2026Experience - Level: BeginnersThe beginners Lightroom photo editing classes are aimed at anyone wishing to learn photo editing and photo management with a workflow and consistencyEquipment Needed:You will need a laptop with Adobe Lightroom Classic subscription and the App installedAlan will provide you with training Lightroom Library with images and use that to explain and then demonstrate the various tools</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/fe40a5e1-7fa2-4057-982e-555479b97022/Lightroom+courses+-+photo+editing+course.png</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/lightroom-courses-for-beginners-coventry</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>150</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses, photo editing, lightroom</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -546,44 +526,44 @@
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RPS Courses - Independent RPS Mentoring for RPS Distinctions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RPS Courses - Independant RPS Mentoring for RPS Distinctions - Start anytime, you select six online Zoom sessions within twelve months at intervals to suit youRPS Courses - Mentoring for DistinctionsParticipants: Via Zoom online in a group of max 3, or on 1-2-1 basis.Equipment Needed: Zoom AppDropbox App used for updated portfolios and imagesTerms: Sessions must be taken within 12 months of booking the course or forfeited, but there are options to extend the timeline and retain unused classes or add additional classes.Method:Technical and creative critique with suggestions for improvementAdvice on image selection and panel layoutMore Details about the RPS Mentoring Course*Note: Your tutor, Alan Ranger, holds both the RPS's Licentiate and Associate Distinctions, but the RPS does not accredit this Course. This is not an approved course or endorsed by the RPS as an organisation. Alan’s advice is private, unofficial and based on his experience and understanding of the elements required to reach the standard that may result in being awarded a distinction without any guarantee.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707307452323-G3C2AIXAHRLLVB36VASA/RPS+Courses.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/rps-mentoring-photography-course</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>150</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>295</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1-2-1-private-lessons, photography-classes, photography-courses, photography-tuition, rps</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RPS Courses - Independent RPS Mentoring for RPS Distinctions</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RPS Courses - Independant RPS Mentoring for RPS Distinctions - Start anytime, you select six online Zoom sessions within twelve months at intervals to suit youRPS Courses - Mentoring for DistinctionsParticipants: Via Zoom online in a group of max 3, or on 1-2-1 basis.Equipment Needed: Zoom AppDropbox App used for updated portfolios and imagesTerms: Sessions must be taken within 12 months of booking the course or forfeited, but there are options to extend the timeline and retain unused classes or add additional classes.Method:Technical and creative critique with suggestions for improvementAdvice on image selection and panel layoutMore Details about the RPS Mentoring Course*Note: Your tutor, Alan Ranger, holds both the RPS's Licentiate and Associate Distinctions, but the RPS does not accredit this Course. This is not an approved course or endorsed by the RPS as an organisation. Alan’s advice is private, unofficial and based on his experience and understanding of the elements required to reach the standard that may result in being awarded a distinction without any guarantee.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707307452323-G3C2AIXAHRLLVB36VASA/RPS+Courses.jpg</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/rps-mentoring-photography-course</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>295</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1-2-1-private-lessons, photography-classes, photography-courses, photography-tuition, rps</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -601,7 +581,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -611,77 +591,97 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Professional Digital DSLR Camera Sensor Clean | Coventry</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Get a camera sensor clean in Coventry . Sensor checked and cleaned using professional equipment, swabs | Full Frame and Cropped Sensors | 24hr Turnaround</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1522495201980-KD6BKH54J01HJR93XXR6/photography-support-Services-1.png</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/camera-sensor-clean</t>
+        </is>
+      </c>
       <c r="E11" t="n">
-        <v>150</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>photography-services</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Professional Digital DSLR Camera Sensor Clean | Coventry</t>
+          <t>4 x 2hr Private Photography Classes - Face to Face Coventry</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Get a camera sensor clean in Coventry . Sensor checked and cleaned using professional equipment, swabs | Full Frame and Cropped Sensors | 24hr Turnaround</t>
+          <t>Package Option - 4 Private Photography Classes Face to Face Coventry - 2 hrs each to suit you - Available 9-5 on weekdays. You will be sent a code to book dates</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1522495201980-KD6BKH54J01HJR93XXR6/photography-support-Services-1.png</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1522495550918-139R34YFWLG3Q89CXENT/PRIVATE-PHOTOGRAPHY-LESSONS.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/camera-sensor-clean</t>
+          <t>https://www.alanranger.com/photography-services-near-me/four-private-photography-classes</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>photography-services</t>
+          <t>1-2-1-private-lessons, photography-classes, photography-tuition, photography-courses</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Beginners Photography Classes - Coventry - Get Off Auto</t>
+          <t>Monthly Pick N Mix Subscription | Interest Free Payment Plan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The 2-hour Get Off Auto beginners photography classes in Coventry are for those wishing to absorb new skills and learn how and why to get off Auto Exposure on their camera.Summary - Get Off AutoDates: 2024/2025 - 19:00 - 21:00Tue May 7thMon June 10thLocation: 45 Hathaway Road, Tile Hill Village, Coventry, CV4 9HWParticipants: Max 4Beginners Photography Classes Event Details: Get Off AutoExperience - Level: Beginner and NoviceThis get off auto photography class is aimed at anyone with a digital camera wishing to get off auto exposure mode and learn about photography exposure.Equipment Needed:This class is a theory, lecture style so a camera is not requiredDescription: Simplifying camera exposure modes:Get off Auto Beginner Photography Classes ContentThe photographic WorkflowSee | Design | Shoot | Enhance |ShareCamera Exposure SettingsUnderstanding scene modes, aperture priority, shutter priority or manual exposure and meteringAperture, ISO, Shutter breakdownHolding the camera properly and understanding the exposure triangleBy switching to the manual modes, you gain full control over the exposure settings, allowing you to unleash your creativity and capture the perfect shot in any lighting situation.</t>
+          <t>Monthly Pick N Mix Subscription Package. 10% Discount on events/services for one year | Interest Free Payment Plan | Take events or lessons immediately |</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1629114920224-P61RYFJEFOEEQTD3KP0Y/beginners-photography-class-get-off-auto.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/7c76925a-43b0-425c-995e-4f4e0190221c/Photography+Payment+Plan.png</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/beginners-photography-classes-coventry</t>
+          <t>https://www.alanranger.com/photography-services-near-me/monthly-pick-n-mix-subscription</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>get-off-auto, photography-classes, photography-courses</t>
+          <t>photography-classes, photography-courses, photography-workshops</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -701,69 +701,29 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4 x 2hr Private Photography Classes - Face to Face Coventry</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Package Option - 4 Private Photography Classes Face to Face Coventry - 2 hrs each to suit you - Available 9-5 on weekdays. You will be sent a code to book dates</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1522495550918-139R34YFWLG3Q89CXENT/PRIVATE-PHOTOGRAPHY-LESSONS.png</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/four-private-photography-classes</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>480</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1-2-1-private-lessons, photography-classes, photography-tuition, photography-courses</t>
-        </is>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Monthly Pick N Mix Subscription | Interest Free Payment Plan</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Monthly Pick N Mix Subscription Package. 10% Discount on events/services for one year | Interest Free Payment Plan | Take events or lessons immediately |</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/7c76925a-43b0-425c-995e-4f4e0190221c/Photography+Payment+Plan.png</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/monthly-pick-n-mix-subscription</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>42</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses, photography-workshops</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -771,7 +731,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -781,7 +741,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -791,7 +751,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -801,7 +761,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -811,7 +771,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -821,7 +781,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -831,19 +791,39 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Quarterly Pick N Mix Subscription | Interest Free Payments</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Quarterly Pick N Mix Subscription Package. 15% Discount on events/services for one year | Interest Free Payment Plan | Take events or lessons immediately |</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/fbab50ee-2fe8-4fe9-8804-e691b883cf4b/Photography+Payment+Plan.png</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/quarterly-pick-n-mix-subscription</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>150</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>photography-classes, photography-courses, photography-workshops</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -851,7 +831,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -861,7 +841,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -871,39 +851,19 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Quarterly Pick N Mix Subscription | Interest Free Payments</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Quarterly Pick N Mix Subscription Package. 15% Discount on events/services for one year | Interest Free Payment Plan | Take events or lessons immediately |</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/fbab50ee-2fe8-4fe9-8804-e691b883cf4b/Photography+Payment+Plan.png</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/quarterly-pick-n-mix-subscription</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>250</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses, photography-workshops</t>
-        </is>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -911,19 +871,39 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Annual Pick N Mix Subscription | Interest Free Payment Plan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Make a one-off payment by bank transfer or through this to get 20% discount on events booked for 12 Months | Tailored Pick N Mix photography training plan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/4c6bb1a6-8752-4aea-a250-484fb1acdf75/Photography+Payment+Plan.png</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/annual-pick-n-mix-subscription</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>350</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>1200</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>photography-classes, photography-courses, photography-workshops</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -931,7 +911,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F32" t="inlineStr"/>
     </row>
@@ -941,7 +921,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -951,59 +931,79 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>750</v>
+        <v>2500</v>
       </c>
       <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Annual Pick N Mix Subscription | Interest Free Payment Plan</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Make a one-off payment by bank transfer or through this to get 20% discount on events booked for 12 Months | Tailored Pick N Mix photography training plan</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/4c6bb1a6-8752-4aea-a250-484fb1acdf75/Photography+Payment+Plan.png</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/annual-pick-n-mix-subscription</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses, photography-workshops</t>
-        </is>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Monthly Photography Mentoring Sessions - Online - Zoom</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Photography mentoring online. Receive a monthly assignment to increase your skills across multiple genres and get expert feedback on your images each month</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1559474612221-TBJKYSCMOO6IM7FTXJJI/online-photography-mentoring.png</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/monthly-online-photography-mentoring</t>
+        </is>
+      </c>
       <c r="E36" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>online, photography-tuition, photography-courses</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Beginners Photography Course | 3 Weekly Evening Classes</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Beginners Photography Course CoventrySummary - Camera Courses For Beginners - Key InformationLocation: 45 Hathaway Road, Tile Hill Village, Coventry, CV4 9HWParticipants: Max 4Time: 19:00 - 21:00Multi Course Start Dates: Beginners Photography Course3wks Mondays - Nov 3 - Nov 17 Coventry3wks Wednesdays - Nov 12 - Nov 26 Coventry3wks Tuesdays - Dec 2 - Dec 16 Coventry3wks Tuesdays - Jan 6 - Jan 20 Coventry3wks Wednesdays - Feb 4 - Feb 18 Coventry3wks Mondays - Feb 9 - 23 Feb Coventry3wks Thursdays - Mar 4 - Mar 18 Coventry3wks Mondays - Mar 9 - Mar 23 Coventry3wks Thursdays - Apr 2 - Apr 16 Coventry3wks Tuesdays - May 5 - May 19 CoventryExperience - Level: Beginner and NoviceThis beginners photography course is aimed at anyone with a digital camera wishing to get off auto exposure mode and learn about key camera settings and composition to make better photos.Equipment Needed:You will need a DSLR or Mirrorless Camera with manual exposure modes.Alan will provide you with a course book covering all the topics for the course</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/bceae6f2-91b8-4012-a00b-7b7b177d346f/Beginners+Photography+Classes.png</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/beginners-photography-course</t>
+        </is>
+      </c>
       <c r="E37" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>photography-classes, photography-courses</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="F38" t="inlineStr"/>
     </row>
@@ -1021,69 +1021,29 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>3000</v>
+        <v>150</v>
       </c>
       <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Monthly Photography Mentoring Sessions - Online - Zoom</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Photography mentoring online. Receive a monthly assignment to increase your skills across multiple genres and get expert feedback on your images each month</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1559474612221-TBJKYSCMOO6IM7FTXJJI/online-photography-mentoring.png</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/monthly-online-photography-mentoring</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>15</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>online, photography-tuition, photography-courses</t>
-        </is>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Beginners Photography Course | 3 Weekly Evening Classes</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Beginners Photography Course CoventrySummary - Camera Courses For Beginners - Key InformationLocation: 45 Hathaway Road, Tile Hill Village, Coventry, CV4 9HWParticipants: Max 4Time: 19:00 - 21:00Multi Course Start Dates: Beginners Photography Course3wks Mondays - Nov 3 - Nov 17 Coventry3wks Wednesdays - Nov 12 - Nov 26 Coventry3wks Tuesdays - Dec 2 - Dec 16 Coventry3wks Tuesdays - Jan 6 - Jan 20 Coventry3wks Wednesdays - Feb 4 - Feb 18 Coventry3wks Mondays - Feb 9 - 23 Feb Coventry3wks Thursdays - Mar 4 - Mar 18 Coventry3wks Mondays - Mar 9 - Mar 23 Coventry3wks Thursdays - Apr 2 - Apr 16 Coventry3wks Tuesdays - May 5 - May 19 CoventryExperience - Level: Beginner and NoviceThis beginners photography course is aimed at anyone with a digital camera wishing to get off auto exposure mode and learn about key camera settings and composition to make better photos.Equipment Needed:You will need a DSLR or Mirrorless Camera with manual exposure modes.Alan will provide you with a course book covering all the topics for the course</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/bceae6f2-91b8-4012-a00b-7b7b177d346f/Beginners+Photography+Classes.png</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/beginners-photography-course</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>150</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1136,14 +1096,34 @@
       <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intermediates Intentions Photography Project Course</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Embark on a six-month photography project and showcase your images in a public exhibition in Warwickshire on this photography course | Coventry | 6-ClassesNO DATES SET FOR 2025 - Check back soon</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707220703945-94B0SK8PWUMOS78FTJMO/photography+project+-+intentions+photography+course.jpg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/intermediates-intentions-photography-project-course</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>150</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>495</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>photography-classes, photography-courses</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1151,19 +1131,39 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fine Art Photography Prints - Canvas wrap-round - Multi Size</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fine Art Photography Prints - Canvas wrap-round creates a contemporary finish to your photo- available in seven sizes. Include in the image title when ordering</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1572426141642-UH9GBUDOUFH8QMTUA0KA/cavas%2Bsizes.jpg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/fine-art-photography-prints-canvas</t>
+        </is>
+      </c>
       <c r="E49" t="n">
-        <v>150</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>135.95</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1171,69 +1171,29 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>150</v>
+        <v>177.95</v>
       </c>
       <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Intermediates Intentions Photography Project Course</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Embark on a six-month photography project and showcase your images in a public exhibition in Warwickshire on this photography course | Coventry | 6-ClassesNO DATES SET FOR 2025 - Check back soon</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707220703945-94B0SK8PWUMOS78FTJMO/photography+project+-+intentions+photography+course.jpg</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/intermediates-intentions-photography-project-course</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>495</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses</t>
-        </is>
-      </c>
+        <v>219.95</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Intermediates Lightroom Photo Editing Course | Coventry</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Photo Editing Course for intermediates, and those who have done or have equivalent knowledge from the Beginners Lightroom Course | Coventry | 4-Weekly Classes</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707221471553-A8VBLICLESJWCMAJESNC/Advanced+Lightroom+photo+editing+Course.jpg</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/intermediates-lightroom-photography-course</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>275</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses</t>
-        </is>
-      </c>
+        <v>306.95</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1241,7 +1201,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>275</v>
+        <v>336.65</v>
       </c>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -1251,79 +1211,59 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>75</v>
+        <v>414.95</v>
       </c>
       <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Photography Masterclasses-Learn and improve your photography</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Bite-sized (2.5hrs) Photography Masterclasses on specific topics. These are the perfect refresher lesson or learn more in-depth theory on particular issues.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1675588273356-8MVS4YXJTH3Y5PRQ36N7/photography-tuition-Package-2.jpg</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/photography-masterclasses-coventry</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>35</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses, photography-tuition</t>
-        </is>
-      </c>
+        <v>459.95</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fine Art Photography Prints - Unframed Prints - Multi Sizes</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fine Art Photography Prints available in seven sizes. Giclee print on archival paper. Please include in the image title when ordering | Pro-Lab Printing</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707240002916-MMJ7CA3MX9HLO60532BO/fine+art+photography+prints.jpg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/fine-art-photography-prints-unframed</t>
+        </is>
+      </c>
       <c r="E56" t="n">
-        <v>35</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+        <v>50.57</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Fine Art Photography Prints - Canvas wrap-round - Multi Size</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Fine Art Photography Prints - Canvas wrap-round creates a contemporary finish to your photo- available in seven sizes. Include in the image title when ordering</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1572426141642-UH9GBUDOUFH8QMTUA0KA/cavas%2Bsizes.jpg</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/fine-art-photography-prints-canvas</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>135.95</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>print</t>
-        </is>
-      </c>
+        <v>95.78</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1331,7 +1271,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>177.95</v>
+        <v>138.86</v>
       </c>
       <c r="F58" t="inlineStr"/>
     </row>
@@ -1341,7 +1281,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>219.95</v>
+        <v>161.38</v>
       </c>
       <c r="F59" t="inlineStr"/>
     </row>
@@ -1351,7 +1291,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>306.95</v>
+        <v>217.23</v>
       </c>
       <c r="F60" t="inlineStr"/>
     </row>
@@ -1361,7 +1301,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>336.65</v>
+        <v>305.05</v>
       </c>
       <c r="F61" t="inlineStr"/>
     </row>
@@ -1371,49 +1311,49 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>414.95</v>
+        <v>416.85</v>
       </c>
       <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Framed Fine Art Photography Prints - Multiple Sizes</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fine Art Photography Prints - Giclee Framed Prints available in four sizes. Black frame with white mount. Please include in the image title when ordering</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707240165500-DB965TUR2FYMNEFPXS90/fine+art+photography+prints+-+framed.jpg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/framed-fine-art-photography-prints</t>
+        </is>
+      </c>
       <c r="E63" t="n">
-        <v>459.95</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>133.85</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Fine Art Photography Prints - Unframed Prints - Multi Sizes</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Fine Art Photography Prints available in seven sizes. Giclee print on archival paper. Please include in the image title when ordering | Pro-Lab Printing</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707240002916-MMJ7CA3MX9HLO60532BO/fine+art+photography+prints.jpg</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/fine-art-photography-prints-unframed</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>50.57</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>print</t>
-        </is>
-      </c>
+        <v>191.5</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1421,7 +1361,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>95.78</v>
+        <v>267.43</v>
       </c>
       <c r="F65" t="inlineStr"/>
     </row>
@@ -1431,29 +1371,69 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>138.86</v>
+        <v>356.9</v>
       </c>
       <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Beginners Portrait Photography Course - Coventry - 1 Day</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Beginners Portrait Photography Course - Suitable for any amateur who wants to learn the fundamentals of portrait photography - Coventry - 1-Day Course</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707238641610-VHWSAVN4IPEHPVRGJNQZ/portrait+photography+course.jpg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/beginners-portrait-photography-course</t>
+        </is>
+      </c>
       <c r="E67" t="n">
-        <v>161.38</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
+        <v>195</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>photography-classes, photography-courses</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Online Photography Classes 121 - Zoom - Package Options</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Private online photography classes tailored to your needs - Tuition &amp; support on any aspect of photography - Pay Now - Book dates later.Online photography classes and support are run via Zoom (free to use)Must be used within 12 months of purchase dateIf you want a package (series) of lessons, these package options offer a discount for purchasing multiples. Mon - Fri - 9 am - 5 pm1 x 1hr - £50 - Normal Price for lesson4 x 1hr - 15% Off normal price6 x 1hr - 20% Off normal price8 x 1hr - 25% Off normal price12 x 1hr - 25% Off normal price</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1698395506000-MRZ4RFY6D3D1ZT6B2MND/photography-classes-online.png</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/private-online-photography-classes-zoom</t>
+        </is>
+      </c>
       <c r="E68" t="n">
-        <v>217.23</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1-2-1-private-lessons, photography-classes, photography-tuition</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1461,7 +1441,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>305.05</v>
+        <v>170</v>
       </c>
       <c r="F69" t="inlineStr"/>
     </row>
@@ -1471,39 +1451,19 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>416.85</v>
+        <v>240</v>
       </c>
       <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Framed Fine Art Photography Prints - Multiple Sizes</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Fine Art Photography Prints - Giclee Framed Prints available in four sizes. Black frame with white mount. Please include in the image title when ordering</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707240165500-DB965TUR2FYMNEFPXS90/fine+art+photography+prints+-+framed.jpg</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/framed-fine-art-photography-prints</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>133.85</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>print</t>
-        </is>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1511,113 +1471,93 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>191.5</v>
+        <v>450</v>
       </c>
       <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Premium Photography Academy Membership Subscription</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Premium Photography Academy Membership with Online Supported LearningSupported learning with tutoring: input, feedback &amp; troubleshootingDirect advice from Alan RangerIncludes everything in Foundation 101 plus:✓ 12 x Power Up Sessions (1 hr, 1-2-1 Zoom with Alan each month)✓ 4×30-min 1:1 coaching Zooms with Alan — targeted problem-solving✓ Image feedback or troubleshooting in every session✓ Exams and Certification Modules✓ eBook of all 60 Foundation Modules✓ 35 x 1 Page Field Checklists (PDF)✓ Free access to all new PDFs, exams, and add-ons released over the next 12 months.Fixed 12-month commitment (no pro-rata or early exit)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/c9ec1c90-837a-4817-9d61-a6d3999e72eb/premium+photography+academy+membership.jpg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photography-services-near-me/premium-photography-academy-membership</t>
+        </is>
+      </c>
       <c r="E73" t="n">
-        <v>267.43</v>
+        <v>60</v>
       </c>
       <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>WARWICKSHIRE Woodland PHOTOGRAPHY WALKS - Monthly - 2hrs</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Informal woodland photography walks in and around Warwickshire Woodlands - All Levels and types of camera welcome - Length 2hrs. 9:30 am-11:30 amSummaryLocation: Various Warwickshire Woodlands2025 - 09:30 - 11:30Crackley Wood, Kenilworth - Fri Nov 7Hay Woods - Solihull Fri Dec 5Tile Hill Nature Reserve Mon Dec 82026 - 09:30 - 11:30Hay Woods - Solihull Fri Jan 2Tile Hill Nature Reserve Mon Feb 2Millisons Wood, Meriden -Sun May 3Piles Coppice, Coventry - Fri Oct 16Participants: Max 6Fitness: 1. EasyExperience Level: Novice to BeginnerEquipment Needed: Phone or Digital CameraPhotography Workshop Event Details: Woodland WalksDescription: Simplifying Woodland Photography: Unlocking the Secrets to Capturing the Beauty of Nature on a photography walkMy aim is not to instruct you what to shoot, instead, I want to help you develop your own sense of visual awareness, photographic eye and your personal interpretation. I will be happy to help you with the “how to shoot” whatever it is you feel drawn to and wish to express through your creative vision using the camera to construct your intention. The photography walks around these selected woodlands are aimed to promote our senses and connection to trees/woodland/nature - as we walk, observe and take in our environment we may decide to make a photograph, or not.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707217364251-99ITJH38DI58S3G3YA47/Woodland+Photography+Walk.jpg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/woodland-photography-walk-warwickshire</t>
+        </is>
+      </c>
       <c r="E74" t="n">
-        <v>356.9</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, Woodlands</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Monthly Online Photography Mentoring for 1 Year - Zoom</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Annual online photography mentoring programme. Receive 12 monthly assignments increase your skills across multiple genres and get expert feedback on your images</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1559474612221-TBJKYSCMOO6IM7FTXJJI/online-photography-mentoring.png</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/monthly-online-photography-mentoring-one-year</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>180</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>online, photography-tuition, photography-courses</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Beginners Portrait Photography Course - Coventry - 1 Day</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Beginners Portrait Photography Course - Suitable for any amateur who wants to learn the fundamentals of portrait photography - Coventry - 1-Day Course</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707238641610-VHWSAVN4IPEHPVRGJNQZ/portrait+photography+course.jpg</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/beginners-portrait-photography-course</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>195</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>photography-classes, photography-courses</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>A3 Mounted Fine Art Print - Unframed | Professional</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>High Quality 8x12" Professional Photograph on 12x16 Mount | Printed on fine art photographic paper | 7-day Turnaround | Pro-Lab Printing | Order Today</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707221726040-8EZZ3VZ67TLH18974P5X/fine+art+print.jpg</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/print</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F77" t="inlineStr"/>
     </row>
@@ -1627,39 +1567,19 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Online Photography Classes 121 - Zoom - Package Options</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Private online photography classes tailored to your needs - Tuition &amp; support on any aspect of photography - Pay Now - Book dates later.Online photography classes and support are run via Zoom (free to use)Must be used within 12 months of purchase dateIf you want a package (series) of lessons, these package options offer a discount for purchasing multiples. Mon - Fri - 9 am - 5 pm1 x 1hr - £50 - Normal Price for lesson4 x 1hr - 15% Off normal price6 x 1hr - 20% Off normal price8 x 1hr - 25% Off normal price12 x 1hr - 25% Off normal price</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1698395506000-MRZ4RFY6D3D1ZT6B2MND/photography-classes-online.png</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/private-online-photography-classes-zoom</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>50</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1-2-1-private-lessons, photography-classes, photography-tuition</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -1667,19 +1587,39 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BATSFORD Arboretum Autumn Photography Workshops 23 - 31 Oct</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Batsford Arboretum Photography Workshops in autumn. Enjoy the colour and expert photographic guidance | Half or One Day Sessions | Any Level and CameraSummaryLocation: Batsford Arboretum - GloucestershireDates: 2026Daily From: Fri 23rd Oct to Fri 31st OctHalf-Day morning workshops are 8 am to 11.30 amHalf-Day afternoon workshops are from 12:00 pm to 3:30 pmOne Day workshops are 8 am to 3:30 pmParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless CameraPhotography Workshop Event Details: Batsford ArboretumDescription: Batsford Arboretum always provides a terrific display of colour, texture and contrasts throughout Autumn. The Batsford Arboretum photography workshops are always very popular and and attract every level of photographer. There really is a complete range and choice for everyone here so it's not to be missed with expert guidance and support.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715155253660-I9BNV2CJV5TPWB56WH93/Batsford+Autumn+7.jpg</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/batsford-arboretum-photography-workshops</t>
+        </is>
+      </c>
       <c r="E81" t="n">
-        <v>240</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, - one day photo workshops, Landscape, Woodlands, autumn</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -1687,7 +1627,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="F82" t="inlineStr"/>
     </row>
@@ -1697,95 +1637,39 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Photo Print Preparation Service 30-min – File Check &amp; Advice</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Book a 30 min Photo Print Preparation Service. I check crop, aspect ratio and DPI, enlarge, retouch, sharpen and supply print-ready image for you to print</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1522495201980-KD6BKH54J01HJR93XXR6/photography-support-Services-1.png</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/photo-print-preparation-service-30min</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>29</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>photography-services</t>
-        </is>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Premium Photography Academy Membership Subscription</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Premium Photography Academy Membership with Online Supported LearningSupported learning with tutoring: input, feedback &amp; troubleshootingDirect advice from Alan RangerIncludes everything in Foundation 101 plus:✓ 12 x Power Up Sessions (1 hr, 1-2-1 Zoom with Alan each month)✓ 4×30-min 1:1 coaching Zooms with Alan — targeted problem-solving✓ Image feedback or troubleshooting in every session✓ Exams and Certification Modules✓ eBook of all 60 Foundation Modules✓ 35 x 1 Page Field Checklists (PDF)✓ Free access to all new PDFs, exams, and add-ons released over the next 12 months.Fixed 12-month commitment (no pro-rata or early exit)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/c9ec1c90-837a-4817-9d61-a6d3999e72eb/premium+photography+academy+membership.jpg</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/premium-photography-academy-membership</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>WARWICKSHIRE Woodland PHOTOGRAPHY WALKS - Monthly - 2hrs</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Informal woodland photography walks in and around Warwickshire Woodlands - All Levels and types of camera welcome - Length 2hrs. 9:30 am-11:30 amSummaryLocation: Various Warwickshire Woodlands2025 - 09:30 - 11:30Crackley Wood, Kenilworth - Fri Nov 7Hay Woods - Solihull Fri Dec 5Tile Hill Nature Reserve Mon Dec 82026 - 09:30 - 11:30Hay Woods - Solihull Fri Jan 2Tile Hill Nature Reserve Mon Feb 2Millisons Wood, Meriden -Sun May 3Piles Coppice, Coventry - Fri Oct 16Participants: Max 6Fitness: 1. EasyExperience Level: Novice to BeginnerEquipment Needed: Phone or Digital CameraPhotography Workshop Event Details: Woodland WalksDescription: Simplifying Woodland Photography: Unlocking the Secrets to Capturing the Beauty of Nature on a photography walkMy aim is not to instruct you what to shoot, instead, I want to help you develop your own sense of visual awareness, photographic eye and your personal interpretation. I will be happy to help you with the “how to shoot” whatever it is you feel drawn to and wish to express through your creative vision using the camera to construct your intention. The photography walks around these selected woodlands are aimed to promote our senses and connection to trees/woodland/nature - as we walk, observe and take in our environment we may decide to make a photograph, or not.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707217364251-99ITJH38DI58S3G3YA47/Woodland+Photography+Walk.jpg</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/woodland-photography-walk-warwickshire</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>15</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Woodlands</t>
-        </is>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -1793,7 +1677,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F87" t="inlineStr"/>
     </row>
@@ -1803,7 +1687,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F88" t="inlineStr"/>
     </row>
@@ -1813,7 +1697,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="F89" t="inlineStr"/>
     </row>
@@ -1823,7 +1707,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F90" t="inlineStr"/>
     </row>
@@ -1833,7 +1717,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F91" t="inlineStr"/>
     </row>
@@ -1843,39 +1727,19 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>BATSFORD Arboretum Autumn Photography Workshops 23 - 31 Oct</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Batsford Arboretum Photography Workshops in autumn. Enjoy the colour and expert photographic guidance | Half or One Day Sessions | Any Level and CameraSummaryLocation: Batsford Arboretum - GloucestershireDates: 2026Daily From: Fri 23rd Oct to Fri 31st OctHalf-Day morning workshops are 8 am to 11.30 amHalf-Day afternoon workshops are from 12:00 pm to 3:30 pmOne Day workshops are 8 am to 3:30 pmParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless CameraPhotography Workshop Event Details: Batsford ArboretumDescription: Batsford Arboretum always provides a terrific display of colour, texture and contrasts throughout Autumn. The Batsford Arboretum photography workshops are always very popular and and attract every level of photographer. There really is a complete range and choice for everyone here so it's not to be missed with expert guidance and support.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715155253660-I9BNV2CJV5TPWB56WH93/Batsford+Autumn+7.jpg</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/batsford-arboretum-photography-workshops</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>125</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, - one day photo workshops, Landscape, Woodlands, autumn</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -1903,7 +1767,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F96" t="inlineStr"/>
     </row>
@@ -1928,14 +1792,34 @@
       <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BLUEBELL WOODLANDS Photography - Warks - 20 Apr- 01 May</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Bluebell woodlands photography workshop - Choose a sunrise or mid-morning 4hr bluebell photography shoot or both sessions at this private bluebell woodland with exclusive accessSummaryLocation: Warwickshire (Near Stratford Upon Avon)Dates (are subject to the timing of the bluebell flowering and their peek display - you will be contacted nearer the time to consider alt-dates, please pick your initial first date choice but be flexible if nearer the time it needs to change)Mon-20-Apr-26Tue-21-Apr-26Wed-22-Apr-26Thu-23-Apr-26Fri-24-Apr-26Sat-25-Apr-26Sun-26-Apr-26Mon-27-Apr-26Tue-28-Apr-26Wed-29-Apr-26Thu-30-Apr-26Fri-01-May-26Book and select either:4hrs - 5:45 am to 9:45 am or 10:30 am to 2:30 pmOR 1 day - 5:45 am to 2:30 pmBrunch between 9:45-10:30 (not included)Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Bluebell WoodsJoin our Bluebell Woodland Photography Workshops in Warwickshire to explore beautiful bluebell woods and enhance your photography skills. Led by a professional photographer, you'll capture stunning photos while enjoying easy walks through bluebell trails and receive valuable photography tips for capturing spring blooms in soft woodland light.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707309659883-DPISYTNT0T584VPXCK39/bluebell+photography+workshops.jpg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/bluebell-woodlands-photography-workshops</t>
+        </is>
+      </c>
       <c r="E99" t="n">
         <v>125</v>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>'- half-day photo work..., - one day photo workshops, Landscape, Woodlands, Flowering</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2023,7 +1907,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F108" t="inlineStr"/>
     </row>
@@ -2048,34 +1932,14 @@
       <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>BLUEBELL WOODLANDS Photography - Warks - 20 Apr- 01 May</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Bluebell woodlands photography workshop - Choose a sunrise or mid-morning 4hr bluebell photography shoot or both sessions at this private bluebell woodland with exclusive accessSummaryLocation: Warwickshire (Near Stratford Upon Avon)Dates (are subject to the timing of the bluebell flowering and their peek display - you will be contacted nearer the time to consider alt-dates, please pick your initial first date choice but be flexible if nearer the time it needs to change)Mon-20-Apr-26Tue-21-Apr-26Wed-22-Apr-26Thu-23-Apr-26Fri-24-Apr-26Sat-25-Apr-26Sun-26-Apr-26Mon-27-Apr-26Tue-28-Apr-26Wed-29-Apr-26Thu-30-Apr-26Fri-01-May-26Book and select either:4hrs - 5:45 am to 9:45 am or 10:30 am to 2:30 pmOR 1 day - 5:45 am to 2:30 pmBrunch between 9:45-10:30 (not included)Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Bluebell WoodsJoin our Bluebell Woodland Photography Workshops in Warwickshire to explore beautiful bluebell woods and enhance your photography skills. Led by a professional photographer, you'll capture stunning photos while enjoying easy walks through bluebell trails and receive valuable photography tips for capturing spring blooms in soft woodland light.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707309659883-DPISYTNT0T584VPXCK39/bluebell+photography+workshops.jpg</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/bluebell-woodlands-photography-workshops</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
         <v>125</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>'- half-day photo work..., - one day photo workshops, Landscape, Woodlands, Flowering</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2308,14 +2172,34 @@
       <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Photography Workshops CHESTERTON WINDMILL - Warwickshire</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Chesterton windmill is one of Warwickshire's most famous landmarks. Join me in a sunset landscape photography workshop and learn about composition and lightSummaryLocation: Warwickshire - ChestertonDates:Mon 30th Mar 2026 - 17:30 - 20:00Mon 18th May 2026 - 18:30 - 21:00Wed 16th Sep 2026 - 18:00 - 20:30Mon 5th Oct 2026 - 17:30 - 20:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: ChestertonDescription: Immerse yourself in the beauty of Warwickshire's iconic Chesterton Windmill with our exclusive sunset landscape photography workshop. Join us for an enriching experience where you'll delve into the art of composition and light, guided by experienced photography professionals.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714682519866-NVMB6B7Q4F93DGOGPQIK/Moonlit+Chesterton.jpg</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/photography-workshops-chesterton-windmill</t>
+        </is>
+      </c>
       <c r="E135" t="n">
-        <v>125</v>
-      </c>
-      <c r="F135" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -2323,7 +2207,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F136" t="inlineStr"/>
     </row>
@@ -2333,7 +2217,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="F137" t="inlineStr"/>
     </row>
@@ -2343,19 +2227,39 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Landscape Photography DEVON Workshops - Various Dates</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Hartland Quay - Landscape Photography Devon Workshop - Join me for this photo workshop to the best coastal and dramatic parts of Devon.SummaryLocation: North Devon - Hartland QuayDates:Fri 26th Sep - Sun 28th Sep 2025 - 3 Days/2 NightsThu 19th 12:30 - Sun 22nd 12:30 Feb 2026 - 4 Days/3 NightsParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera, Tripod and ND FiltersPhotography Workshop Event Details: DevonDescription: Our landscape photography devon workshops are carefully crafted to provide you with an immersive and educational experience. Led by experienced and passionate photographers, these workshops offer a structured learning environment that ensures personal development and skill enhancement. From the moment you join us, you'll be guided through the intricacies of seascape photography, learning new techniques and refining your artistic vision.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714299365471-K36RWNIKFNGJ4C70UEXB/Atlantic+Force.jpg</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-devon-hartland-quay</t>
+        </is>
+      </c>
       <c r="E139" t="n">
-        <v>125</v>
-      </c>
-      <c r="F139" t="inlineStr"/>
+        <v>750</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -2363,19 +2267,39 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
-        <v>175</v>
+        <v>895</v>
       </c>
       <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Poppy Fields Photography Workshops | Worcestershire</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Poppy fields photography workshop - Choose a sunrise or sunset 2.5hrs photo workshop at amazing poppy fields in Worcestershire | Seasonal DependantSummaryLocation: WorcestershireDates: (dates are subject to change based on when the poppy fields flower in June)8th Jun 19:15 - 21:459th Jun 05:00 - 07:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: PoppiesDescription: Rolling hills full of poppies takes some beating. Join me for one of the poppy fields photography location shoots from early June to end of June in Worcestershire - These are provisional dates and may change depending on mother nature.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714575407530-MBS3PUSXD9GGHA68754C/poppy+dawn.jpg</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/poppy-fields-photography-workshops</t>
+        </is>
+      </c>
       <c r="E141" t="n">
-        <v>125</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -2383,19 +2307,39 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>FAIRY GLEN and Fairy Falls Long Exposure Photography</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>A magical gorge on the River Conwy at Betws-y-Coed. Fairy Glen and Fairy Falls provide an opportunity to practise long exposure photography on the magic of this river. Fairy Glen Betws-y-Coed Long Exposure Photography WorkshopSummaryLocation: Wales - Betws-y-CoedDates:Sat 7th Mar 2026 - 10:00 - 13:30Fri 8th May 2026 - 10:00 - 13:30Sat 3rd Oct 2026 - 10:00 - 13:30Participants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Fairy GlenDescription: Long exposure and creating spectacular movement photos. Two great locations within a couple of miles of each other. Flowing River through gorge. A magical serene and secluded gorge through the river Conwy at Betws-y- Coed provides a great opportunity to practise long exposure photography and make images that capture the wonderful natural colours and light that frequently falls into this glen.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707214813724-6QPD5O2XJNRQNOEIRBXO/Fairy+Glen+Betws-y-Coed+Photography+Workshop.jpg</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/long-exposure-photography-workshop-fairy-glen</t>
+        </is>
+      </c>
       <c r="E143" t="n">
-        <v>175</v>
-      </c>
-      <c r="F143" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -2418,42 +2362,62 @@
       <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BURNHAM ON SEA Long Exposure Photography Workshop 2 May</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Seascape and Long Exposure Photography workshop at this iconic location in Somerset with the lighthouse at Burnham on SeaSummaryLocation: Somerset - Burnham On SeaDates: Sat 2nd May 2026 - 18:30 - 21:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: BurnhamDescription: Experience the magic of long exposure photography against the breathtaking backdrop of Burnham on Sea's iconic lighthouse. Join us for an unforgettable workshop where you'll master the art of capturing stunning sunset seascapes. Our expert instructors will guide you through the process, helping you harness the beauty of this picturesque location in Somerset</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714573609279-RSKP2ELI51B1VY87SOCS/Burnham+Still.jpg</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/long-exposure-photography-workshops-burnham</t>
+        </is>
+      </c>
       <c r="E146" t="n">
-        <v>175</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>coastal, All Photography Workshops, - half-day photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Photography Workshops CHESTERTON WINDMILL - Warwickshire</t>
+          <t>LAVENDER FIELD Photography Workshop - Gloucestershire July</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chesterton windmill is one of Warwickshire's most famous landmarks. Join me in a sunset landscape photography workshop and learn about composition and lightSummaryLocation: Warwickshire - ChestertonDates:Mon 30th Mar 2026 - 17:30 - 20:00Mon 18th May 2026 - 18:30 - 21:00Wed 16th Sep 2026 - 18:00 - 20:30Mon 5th Oct 2026 - 17:30 - 20:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: ChestertonDescription: Immerse yourself in the beauty of Warwickshire's iconic Chesterton Windmill with our exclusive sunset landscape photography workshop. Join us for an enriching experience where you'll delve into the art of composition and light, guided by experienced photography professionals.</t>
+          <t>Join me in the Cotswolds for a spectacular lavender field landscape workshop. Photograph in the evening hours by arrangement of owners (date is subject to change or weather on the day) Price includes entry fee of £30SummaryLocation: Snowshill - GloucestershireDates:Sat 4th Jul 2026 - 17:00 20:00Sat 11th Jul 2025 - 17:00 20:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: LavenderDescription: Join me in the Cotswolds for a spectacular sight of Lavender. We will shoot into the evening hours and capture some great colour - go abstract or vista; the choice is yours.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714682519866-NVMB6B7Q4F93DGOGPQIK/Moonlit+Chesterton.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714571149035-8ZN5I6UWJRIY2TG52JNT/Lavender+Photography+Workshop.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/photography-workshops-chesterton-windmill</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/photography-workshops-lavender-fields</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
+          <t>All Photography Workshops, - half-day photo workshops, Flowering, Landscape</t>
         </is>
       </c>
     </row>
@@ -2463,19 +2427,39 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>LAKE DISTRICT Photography Workshops - Jan - Mar - Sep - Nov</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>An exciting 3 day/2 night residential lake district photography workshop visiting some gorgeous spots around Cumbria. Runs every Jan, Mar, Sep, NovSummaryLocation: Cumbria - Lake DistrictDates:Fri 23 Jan - Sun 25 Jan - 3 Days/2 Nights 2026Fri 20 Mar - Sun 22 Mar - 3 Days/2 Nights 2026Fri 18 Sep - Sun 20 Sep - 3 Days/2 Nights 2026Fri 13 Nov - Sun 15 Nov - 3 Days/2 Nights 2026Extra night B&amp;B available for Thu - Contact me for details and booking separatelyParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Lake DistrictDescription: We will be based in the north lakes and visit some of the top spots in the Lake District for photographs. The Lake District has been a favourite location for photographers for decades. It offers a rich variety of landscapes and the seasonal weather means it can be different every time you visit.The weather creates unique windows to capture, reflections, mist, stormy skies and subtle and strong colours - often all in the space of 1-2 days and sometimes just hours.We will visit approximately 2-3 locations a day in a weekend subject to the wishes of the group, time, weather and other factors: Sign up today for an amazing lake district photography workshop</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714301696717-TME057MTL131H9UHU82H/Bassenthwaite+Rise.jpg</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/lake-district-photography-workshop</t>
+        </is>
+      </c>
       <c r="E149" t="n">
-        <v>65</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
+        <v>1025</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -2483,39 +2467,19 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
-        <v>65</v>
+        <v>1125</v>
       </c>
       <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Landscape Photography DEVON Workshops - Various Dates</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Hartland Quay - Landscape Photography Devon Workshop - Join me for this photo workshop to the best coastal and dramatic parts of Devon.SummaryLocation: North Devon - Hartland QuayDates:Fri 26th Sep - Sun 28th Sep 2025 - 3 Days/2 NightsThu 19th 12:30 - Sun 22nd 12:30 Feb 2026 - 4 Days/3 NightsParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera, Tripod and ND FiltersPhotography Workshop Event Details: DevonDescription: Our landscape photography devon workshops are carefully crafted to provide you with an immersive and educational experience. Led by experienced and passionate photographers, these workshops offer a structured learning environment that ensures personal development and skill enhancement. From the moment you join us, you'll be guided through the intricacies of seascape photography, learning new techniques and refining your artistic vision.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714299365471-K36RWNIKFNGJ4C70UEXB/Atlantic+Force.jpg</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/landscape-photography-devon-hartland-quay</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
-        <v>750</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
-        </is>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -2523,37 +2487,37 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
-        <v>895</v>
+        <v>1125</v>
       </c>
       <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Poppy Fields Photography Workshops | Worcestershire</t>
+          <t>PEAK DISTRICT Photography Workshops - May, Oct and Nov</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Poppy fields photography workshop - Choose a sunrise or sunset 2.5hrs photo workshop at amazing poppy fields in Worcestershire | Seasonal DependantSummaryLocation: WorcestershireDates: (dates are subject to change based on when the poppy fields flower in June)8th Jun 19:15 - 21:459th Jun 05:00 - 07:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: PoppiesDescription: Rolling hills full of poppies takes some beating. Join me for one of the poppy fields photography location shoots from early June to end of June in Worcestershire - These are provisional dates and may change depending on mother nature.</t>
+          <t>Join me in the Peak District in Hope Valley. Padley Gorge and Bolehill Quarry throughout the year on Peak District photography workshops | All levels welcomeSummaryLocation: Peak District - DerbyshireDates: Sat 16th May 2026 - 09:30 - 16:00Sat 17th Oct 2026 - 09:30 - 16:00Sun 1st Nov 2026 - 09:30 - 16:00Sat 7th Nov 2026 - 09:30 - 16:00Participants: Max 6Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Padley Gorge And Bolehill QuarryDescription: Spring and Autumn WorkshopsPadley Gorge is a deep but narrow valley in the Peak District, Derbyshire, between the village of Grindleford and the A6187 road. The gorge is wooded with a stream, the Burbage Brook, at the bottom. Padley provides numerous opportunities to refine your composition in many aspects. You can opt for close-up sketches of woodland growth, rocks and water or tackle a wider vista showing the river and work on long exposures, water abstracts and much more.Bolehill Quarry - Created hundreds of millions of years ago by the power of natural forces, the last few centuries have seen the rugged landscape surrounding Padley Gorge sculpted by man who long ago quarried these gritstone Edges for stone and tunnelled deep beneath the moors to drive a railway line through the hills. Now an area of outstanding natural beauty, this walk takes in the breathtaking heights of Millstone Edge and majestic silver birch woodlands. It's a great location for any level of photographer to hone their skills and techniques.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714575407530-MBS3PUSXD9GGHA68754C/poppy+dawn.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1709626967694-M4DJSC9GYR1R1LZFYBUF/Padley+Gorge+%2304+-+Mar+2024.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/poppy-fields-photography-workshops</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-peak-district-photography-workshops-derbyshire</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops</t>
+          <t>All Photography Workshops, - one day photo workshops, Landscape, Woodlands</t>
         </is>
       </c>
     </row>
@@ -2563,39 +2527,19 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>FAIRY GLEN and Fairy Falls Long Exposure Photography</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>A magical gorge on the River Conwy at Betws-y-Coed. Fairy Glen and Fairy Falls provide an opportunity to practise long exposure photography on the magic of this river. Fairy Glen Betws-y-Coed Long Exposure Photography WorkshopSummaryLocation: Wales - Betws-y-CoedDates:Sat 7th Mar 2026 - 10:00 - 13:30Fri 8th May 2026 - 10:00 - 13:30Sat 3rd Oct 2026 - 10:00 - 13:30Participants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Fairy GlenDescription: Long exposure and creating spectacular movement photos. Two great locations within a couple of miles of each other. Flowing River through gorge. A magical serene and secluded gorge through the river Conwy at Betws-y- Coed provides a great opportunity to practise long exposure photography and make images that capture the wonderful natural colours and light that frequently falls into this glen.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707214813724-6QPD5O2XJNRQNOEIRBXO/Fairy+Glen+Betws-y-Coed+Photography+Workshop.jpg</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/long-exposure-photography-workshop-fairy-glen</t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>125</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
-        </is>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -2603,129 +2547,189 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ANGLESEY Landscape Photography Workshop -  May 2026</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Join me for this exciting Anglesey landscape photography workshop, where we will shoot along the stunning coastline features to capture breathtaking vistas that showcase the natural beauty surrounding the shorelines and iconic lighthouses.Summary - Anglesey Photography WorkshopLocation: Wales - Anglesey IslandDates: Fri 8th May 15:00 - Sun 10th May 14:00, 2026Duration: 3 Days/2 NightsParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Anglesey PhotographyDescription: A great location for a Landscape Photography Workshop Anglesey is a large island of 220 square miles of mainly farmland, but the coastline is excellent for photography with sandy coves, harbours, and rocky headlands in addition to the lighthouses. We will also explore some other areas, Parys Mountain, once the world's biggest copper mine, which has been used in many science fiction films and TV shows for its Martian-like coloured appearance.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707225841274-TEMCPAEP5DHDVCBJP2RD/anglesey+photography+workshop.jpg</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-workshops-anglesey</t>
+        </is>
+      </c>
       <c r="E157" t="n">
-        <v>125</v>
-      </c>
-      <c r="F157" t="inlineStr"/>
+        <v>875</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>coastal, Landscape, - weekend residential photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BURNHAM ON SEA Long Exposure Photography Workshop 2 May</t>
+          <t>NORTHUMBERLAND Photography Workshops - Feb 26 - Mar 1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Seascape and Long Exposure Photography workshop at this iconic location in Somerset with the lighthouse at Burnham on SeaSummaryLocation: Somerset - Burnham On SeaDates: Sat 2nd May 2026 - 18:30 - 21:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: BurnhamDescription: Experience the magic of long exposure photography against the breathtaking backdrop of Burnham on Sea's iconic lighthouse. Join us for an unforgettable workshop where you'll master the art of capturing stunning sunset seascapes. Our expert instructors will guide you through the process, helping you harness the beauty of this picturesque location in Somerset</t>
+          <t>Exciting 4 day residential Northumberland Landscape Photography Workshops - Coastline Photography visiting the iconic spots on the Northumbrian coastSummaryLocation: Northumberland, LowickDates:Thu 26th Feb 13:00 - Sun 1st Mar, 13:00 2026 - 4 Days/3 NightsParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodNorthumberland Photography Workshops Event Details: NorthumberlandDescription: Northumberland Photography Workshops - One of the highlights of Northumberland's landscape is its impressive collection of over seventy castles, the highest number in any English county. These historic fortresses not only showcase the region's rich heritage but also serve as captivating subjects for your photographs. The iconic Bamburgh Castle, dating back to the 11th century, stands majestically on a rocky outcrop, offering panoramic views of the surrounding coastline. Alnwick Castle, made famous by its appearance in the Harry Potter films, is another must-visit location for photography enthusiasts.Lindisfarne Castle and Dunstanburgh Castle are two other gems that beckon photographers with their unique charm. Lindisfarne Castle, perched on a basalt rock outcrop, creates a striking silhouette against the backdrop of the North Sea. Dunstanburgh Castle, situated atop a grassy cliff edge, is flanked by smooth black boulders on Embleton Beach, creating a dramatic composition that is sure to leave a lasting impression on your photographs.Sign up to Northumberland Photography Workshops - Coastline Photography to take your photography to the next level.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714573609279-RSKP2ELI51B1VY87SOCS/Burnham+Still.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714235981485-EF5PRA0X9C6ZNGQUO265/dunstanburgh+boulders.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/long-exposure-photography-workshops-burnham</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/coastal-northumberland-photography-workshops</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>95</v>
+        <v>995</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>coastal, All Photography Workshops, - half-day photo workshops</t>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LAVENDER FIELD Photography Workshop - Gloucestershire July</t>
+          <t>NANT MILL Woodlands and Waterfalls Photo Workshop 30 May</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Join me in the Cotswolds for a spectacular lavender field landscape workshop. Photograph in the evening hours by arrangement of owners (date is subject to change or weather on the day) Price includes entry fee of £30SummaryLocation: Snowshill - GloucestershireDates:Sat 4th Jul 2026 - 17:00 20:00Sat 11th Jul 2025 - 17:00 20:00Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: LavenderDescription: Join me in the Cotswolds for a spectacular sight of Lavender. We will shoot into the evening hours and capture some great colour - go abstract or vista; the choice is yours.</t>
+          <t>Long exposures photography on the river and waterfalls that run through this enchanting woodland, secluded Welsh valley at Nant MillSummaryLocation: Wales - Wrexham - Nant MillDates: Sat 7th June 202510:30 am to 2 pmParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Nant MillDescription: Embark on a captivating journey of long-exposure photography amidst the secluded Welsh valley of Nant Mill. Join us for an immersive workshop where you'll discover the mesmerizing art of capturing river and waterfall scenes in this ancient woodland near Wrexham.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714571149035-8ZN5I6UWJRIY2TG52JNT/Lavender+Photography+Workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/83fecb77-55e2-4a1b-b532-efa4213e832a/limbs.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/photography-workshops-lavender-fields</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-workshops-nant-mill</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Flowering, Landscape</t>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape, Woodlands</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Landscape Photography Workshop NORFOLK - Coastal 13 - 15 Feb</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Landscape Photography Workshop Norfolk - Coastal Photography Based Nr CromerSummary - Norfolk Photography WorkshopLocation: North Norfolk Coast - Cromer AreaDates: Fri 13th, 09:30am - Sun 15th Feb 2026, 14:00 - 3 Days/2 NightsParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: NorfolkDescription: Photography Workshop Norfolk - We will photograph the North Norfolk coastline ranging from Overstand and Cromer sea fronts and groynes to the atmospheric estuaries of Morston Quay and Blakeney Harbour. Beach huts, boats, estuaries, marshland, there is something for everyone on this 3 day North Norfolk photography workshop.Abandoned boats, windmills, nature reserve, sand dunes, coastal erosion, coastal path/estuary, optional seal trip and of course seascapes. The silting has left a fascinating landscape of marshes, sandhills and mud banks, with many creeks and channels twisting and turning their way through. Blakeney village is set on a small hill leading down to the harbour and has pretty flint cottages.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1711625462292-PCMT7Q118L1X51MPSENJ/Wells+Next+To+Sea+%2302+-+Sep+2022.jpg</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-workshop-norfolk</t>
+        </is>
+      </c>
       <c r="E160" t="n">
-        <v>150</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
+        <v>1025</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LAKE DISTRICT Photography Workshops - Jan - Mar - Sep - Nov</t>
+          <t>KERRY - Southern Ireland Photography Workshop - Mar 2026</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>An exciting 3 day/2 night residential lake district photography workshop visiting some gorgeous spots around Cumbria. Runs every Jan, Mar, Sep, NovSummaryLocation: Cumbria - Lake DistrictDates:Fri 23 Jan - Sun 25 Jan - 3 Days/2 Nights 2026Fri 20 Mar - Sun 22 Mar - 3 Days/2 Nights 2026Fri 18 Sep - Sun 20 Sep - 3 Days/2 Nights 2026Fri 13 Nov - Sun 15 Nov - 3 Days/2 Nights 2026Extra night B&amp;B available for Thu - Contact me for details and booking separatelyParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Lake DistrictDescription: We will be based in the north lakes and visit some of the top spots in the Lake District for photographs. The Lake District has been a favourite location for photographers for decades. It offers a rich variety of landscapes and the seasonal weather means it can be different every time you visit.The weather creates unique windows to capture, reflections, mist, stormy skies and subtle and strong colours - often all in the space of 1-2 days and sometimes just hours.We will visit approximately 2-3 locations a day in a weekend subject to the wishes of the group, time, weather and other factors: Sign up today for an amazing lake district photography workshop</t>
+          <t>Photograph amazing areas in South Kerry, Dingle, and Killarney National Park on this 5-day Ireland photography workshopSummaryLocation: Dingle and Killarney - Kerry Southern IrelandDates: Thu 5th - Mon 10th Mar 2026 - 5 Days/4 NightsParticipants: Max 4Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DingleDescription: We will be based near Dingle and visit some of the top spots around the Dingle Peninsula, South Kerry (Skellig Ring) and finally Killarney National Park.There is a wide variety of subjects: Mountains, Lakes, Waterfalls, Trees/woodlands, Coastline, Rock Formations to name a few. All set in stunning scenery to wow any visitor and photographer. We will visit several locations in a day, some are short 10-15 min stops (layby shoots) others will require more time to perfectly capturing the perfect moment with tides and light.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714301696717-TME057MTL131H9UHU82H/Bassenthwaite+Rise.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1710060195646-WLFJL2H358FJD4GKV1CP/Coumeenoole+Strand+2.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/lake-district-photography-workshop</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/ireland-photography-workshops-dingle</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1025</v>
+        <v>1595</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MACRO Photography Workshops Warwickshire - Feb and Mar</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Abstract and Macro Photography Workshop . Learn about camera settings, lens use, controlling DoF and composition. Various Dates in Warwickshire | Half DaySummaryLocation: WarwickshireDates: Macro Photography WorkshopsMacro Photography - Sat 8 Nov 10:00 - 12:30Macro Photography - Sun 17 May 10:00 - 12:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: Digital Camera and Tripod, Zoom or Macro LensMacro Photography Workshop Event Details: Macro Photography and AbstractDescription: Join me at a Warwickshire location for this macro photography workshop: We will work around the area in search of macro and abstract shapes, form, colour, tone and patterns.There are beautiful trees with loads of interesting trunks - in addition, all around the area is water, stone and nature’s imprint creating some great textures, shapes, patterns and colours for us to explore and practise and learn macro photography.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/25c550a3-a242-4303-a11b-367dd7055dbe/Abstract%2Band%2BMacro%2BPhotography%2BWorkshops%2B%25282%2529.jpg</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/abstract-and-macro-photography-workshops</t>
+        </is>
+      </c>
       <c r="E162" t="n">
-        <v>1125</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, Macro &amp; Abstract</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -2733,289 +2737,309 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>1125</v>
+        <v>65</v>
       </c>
       <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Christmas Photography Seasonal Workshops | Warwickshire</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Christmas photography workshops. A Leisurely Christmas photography walk and photograph the countryside - Lapworth or the Christmas lights Stratford Upon Avon photography- Warwickshire - Expert Advice GivenSummaryLocation: WarwickshireDates: 2024 DatesMonday 16 December 2024 - 18:30 - 21:00 - Stratford Upon Avon Evening ShootSunday, 29 December 2024 - 1 day Christmas Photo Walk08:45 15:15Break for pub lunch around 12:45 - Not includedParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodChristmas Photography Workshop Event Details: Christmas PhotowalkDescription: Christmas photography Workshops - Will you need to escape the heat and fuss of Christmas festivities and start walking off some of the overindulgences of Christmas? Join me for the informal christmas photography photo walk and discover just how much there is to photograph as you walk around the countryside.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1573822266360-1I7REB8B91RNZXW2PNKP/christmas-sparkle-photography-workshop.jpg</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/christmas-photography-workshops</t>
+        </is>
+      </c>
       <c r="E164" t="n">
-        <v>1125</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape, Urban</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>PEAK DISTRICT Photography Workshops - May, Oct and Nov</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Join me in the Peak District in Hope Valley. Padley Gorge and Bolehill Quarry throughout the year on Peak District photography workshops | All levels welcomeSummaryLocation: Peak District - DerbyshireDates: Sat 16th May 2026 - 09:30 - 16:00Sat 17th Oct 2026 - 09:30 - 16:00Sun 1st Nov 2026 - 09:30 - 16:00Sat 7th Nov 2026 - 09:30 - 16:00Participants: Max 6Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Padley Gorge And Bolehill QuarryDescription: Spring and Autumn WorkshopsPadley Gorge is a deep but narrow valley in the Peak District, Derbyshire, between the village of Grindleford and the A6187 road. The gorge is wooded with a stream, the Burbage Brook, at the bottom. Padley provides numerous opportunities to refine your composition in many aspects. You can opt for close-up sketches of woodland growth, rocks and water or tackle a wider vista showing the river and work on long exposures, water abstracts and much more.Bolehill Quarry - Created hundreds of millions of years ago by the power of natural forces, the last few centuries have seen the rugged landscape surrounding Padley Gorge sculpted by man who long ago quarried these gritstone Edges for stone and tunnelled deep beneath the moors to drive a railway line through the hills. Now an area of outstanding natural beauty, this walk takes in the breathtaking heights of Millstone Edge and majestic silver birch woodlands. It's a great location for any level of photographer to hone their skills and techniques.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1709626967694-M4DJSC9GYR1R1LZFYBUF/Padley+Gorge+%2304+-+Mar+2024.jpg</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/landscape-peak-district-photography-workshops-derbyshire</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>175</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - one day photo workshops, Landscape, Woodlands</t>
-        </is>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Landscape YORKSHIRE DALES Photography Workshop - 10 - 12 Apr</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Yorkshire Dales Photography Workshop - Join me for this fantastic landscape workshop on limestone pavements and waterfalls.SummaryLocation: Yorkshire DalesDates: Fri 10th - Sun 12th Apr 2026 - 3 Days/2 NightsParticipants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Yorkshire DalesDescription: Yorkshire Dales photography workshop - An exciting 3-day residential photography workshop visiting some gorgeous spots around the Yorkshire Dales. Includes early morning shoots and a variety of moody and dramatic scenes for you to practice, learn and hone your photographic skills.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714659095505-TB874TXCA6ADNDFC82FX/Muker+%2302+-+July+2021.jpg</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/yorkshire-dales-photography-workshops</t>
+        </is>
+      </c>
       <c r="E166" t="n">
-        <v>175</v>
-      </c>
-      <c r="F166" t="inlineStr"/>
+        <v>875</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SUFFOLK Landscape Photography Workshops - 21st - 23rd Nov</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Join us for an inspiring Suffolk landscape photography workshop, where you'll have the opportunity to create stunning long exposures during breathtaking sunrises and vibrant sunsets. We will explore picturesque quays, serene estuaries, intriguing piers, and tranquil marshes, all while capturing the beauty of charming beach huts and ancient woodlands. Emphasising artistic expression, we'll also delve into the world of black and white photography, allowing you to bring a classic touch to your coastal images.SummaryLocation: Suffolk - East Anglia / Southwold/Aldeburgh AreaDates: Fri 21st 09:30 - Sun 23rd 14:30 Nov 2025 - 3 Days/2 NightsParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: SuffolkDescription: Suffolk Landscape Photography Workshop - The Suffolk coastline offers a wide variety of views and caters for all styles and ways of interpreting the land and seascapes. There will be a rich mixture of coastal shoreline vista to shoreline architecture including piers, beach huts and iconic sea defence structures.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714650055069-5DPM44ERXSX234XAGLA9/Southwold+%2304+-+February+2024.jpg</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/suffolk-landscape-photography-workshops</t>
+        </is>
+      </c>
       <c r="E167" t="n">
-        <v>175</v>
-      </c>
-      <c r="F167" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>coastal, - weekend residential photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NORTH YORKSHIRE Landscape Photography Workshop - Mar 2026</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>An exciting 4-day residential Yorkshire Landscape Photography Workshop - visiting some of the iconic spots around the North Yorkshire Coast and MoorsSummary - Photography Workshops YorkshireLocation: North YorkshireDates:Thu 26 Mar - Sun 29 Mar 2026 - 4 Days/3 NightsParticipants: Max 3Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: North YorkshireDescription: North Yorkshire Landscape Photography - We will be based on the northeast coast of England (North Yorkshire and the Moors) and visit some of the iconic coastlines of Staithes, Runswick, Whitby and more. We will concentrate our workshop time along the impressive coastline and work from sunrise to sunset to ensure we make use of the best light, tides and empty beaches. This is the perfect workshop for practising long exposures and working at sunrise and sunsets to get those iconic views on the coast.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707212716744-VYD7AYV9U6N6VEZ3C4D1/North+Yorkshire+Photography+Workshop.jpg</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.alanranger.com/photo-workshops-uk/north-yorkshire-landscape-photography</t>
+        </is>
+      </c>
       <c r="E168" t="n">
-        <v>175</v>
-      </c>
-      <c r="F168" t="inlineStr"/>
+        <v>1495</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ANGLESEY Landscape Photography Workshop -  May 2026</t>
+          <t>WALES Photography Workshop | Lake Vyrnwy 29 - 30 Nov</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Join me for this exciting Anglesey landscape photography workshop, where we will shoot along the stunning coastline features to capture breathtaking vistas that showcase the natural beauty surrounding the shorelines and iconic lighthouses.Summary - Anglesey Photography WorkshopLocation: Wales - Anglesey IslandDates: Fri 8th May 15:00 - Sun 10th May 14:00, 2026Duration: 3 Days/2 NightsParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Anglesey PhotographyDescription: A great location for a Landscape Photography Workshop Anglesey is a large island of 220 square miles of mainly farmland, but the coastline is excellent for photography with sandy coves, harbours, and rocky headlands in addition to the lighthouses. We will also explore some other areas, Parys Mountain, once the world's biggest copper mine, which has been used in many science fiction films and TV shows for its Martian-like coloured appearance.</t>
+          <t>Join me for this fantastic Wales photography workshop of woodlands, lakes and waterfalls in Mid-WalesLocation: Wales - Dee ValleyDates: Sat 29th - Sun 30th Nov 2025 - 2 Days/1 NightParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodWales Photography Workshop Event Details: Lake VyrnwyDescription: Pistyll Rhaeadr is an enchanting waterfall in the Berwyn Mountains, just inside Wales, west of Oswestry and Shrewsbury. At 240ft (73m) high, Britain's tallest single-drop waterfall (with a drop 20m higher than Niagara Falls) captivates all who visit her—known as one of the seven wonders of Wales with its three stages of drops. Generation after generation take in the spirit and presence of this remarkable place. Surrounding the falls is a viewing platform, bridge, and woodland alongside the Afon Rhaeadr.Pistyll Rhaeadr offers an excellent opportunity to practice long exposure photography of moving water with many viewpoints of the falls and also down at water level with its laminated slate beds and plenty of mini falls and closer-up compositions to make.Lake Vyrnwy is a reservoir in Powys, Wales, built in the 1880s for Liverpool Corporation Waterworks to supply Liverpool with fresh water. It flooded the head of the Vyrnwy valley and submerged the village of Llanwddyn. These two locations to give you a real taste of Wales photography</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707225841274-TEMCPAEP5DHDVCBJP2RD/anglesey+photography+workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714636535694-5SWM865PVWA9MMT8LCQB/Dawn+at+Lake+Vyrnwy_.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/landscape-photography-workshops-anglesey</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/wales-photography-workshop-pistyll-rhaeadr</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>875</v>
+        <v>595</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>coastal, Landscape, - weekend residential photo workshops</t>
+          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NORTHUMBERLAND Photography Workshops - Feb 26 - Mar 1</t>
+          <t>Landscape Photography SNOWDONIA - Sat 7th - Sun 8th Mar 2026</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Exciting 4 day residential Northumberland Landscape Photography Workshops - Coastline Photography visiting the iconic spots on the Northumbrian coastSummaryLocation: Northumberland, LowickDates:Thu 26th Feb 13:00 - Sun 1st Mar, 13:00 2026 - 4 Days/3 NightsParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodNorthumberland Photography Workshops Event Details: NorthumberlandDescription: Northumberland Photography Workshops - One of the highlights of Northumberland's landscape is its impressive collection of over seventy castles, the highest number in any English county. These historic fortresses not only showcase the region's rich heritage but also serve as captivating subjects for your photographs. The iconic Bamburgh Castle, dating back to the 11th century, stands majestically on a rocky outcrop, offering panoramic views of the surrounding coastline. Alnwick Castle, made famous by its appearance in the Harry Potter films, is another must-visit location for photography enthusiasts.Lindisfarne Castle and Dunstanburgh Castle are two other gems that beckon photographers with their unique charm. Lindisfarne Castle, perched on a basalt rock outcrop, creates a striking silhouette against the backdrop of the North Sea. Dunstanburgh Castle, situated atop a grassy cliff edge, is flanked by smooth black boulders on Embleton Beach, creating a dramatic composition that is sure to leave a lasting impression on your photographs.Sign up to Northumberland Photography Workshops - Coastline Photography to take your photography to the next level.</t>
+          <t>Join me on this landscape photography Snowdonia workshop in the iconic mountains, quarries and landscape of Snowdonia national park.Summary - Snowdonia Landscape photography workshopLocation:Wales - Snowdonia National ParkDates: Sat 7th - Sun 8th Mar 2026 - 2 Days/1 NightParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: SnowdoniaDescription: Snowdonia National Park, located in North Wales, offers a diverse range of landscapes that will inspire and challenge any photographer. Snowdonia has everything from rugged mountains, flowing rivers, serene lakes, and ancient quarries.The park is home to some of the highest mountain ranges in England and Wales, providing a stunning backdrop for your photography journey. The terrain and landscape of Snowdonia, with its waterfalls, are great for long exposure techniques, the quarries and slate mines provide a starker but striking landscape to create images from the historic mining relics in the area, and last but not least, there are majestic lakes with reflections and mountains to practise and be inspired by to create compelling compositions from this rugged and serene landscape.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714235981485-EF5PRA0X9C6ZNGQUO265/dunstanburgh+boulders.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1711625824431-22D7V1RNKR8H2LBRW4Z9/Snowdonia+%2301+-+Oct+2023.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/coastal-northumberland-photography-workshops</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-snowdonia-workshops</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>995</v>
+        <v>595</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
+          <t>Landscape</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NANT MILL Woodlands and Waterfalls Photo Workshop 30 May</t>
+          <t>DORSET Landscape Photography Workshop Purbeck 16 - 18 Jan</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Long exposures photography on the river and waterfalls that run through this enchanting woodland, secluded Welsh valley at Nant MillSummaryLocation: Wales - Wrexham - Nant MillDates: Sat 7th June 202510:30 am to 2 pmParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Nant MillDescription: Embark on a captivating journey of long-exposure photography amidst the secluded Welsh valley of Nant Mill. Join us for an immersive workshop where you'll discover the mesmerizing art of capturing river and waterfall scenes in this ancient woodland near Wrexham.</t>
+          <t>Join me on this 3-day/2-night fantastic Dorset Photography workshop along the Jurassic coastline of Dorset - PurbeckSummary - Dorset Landscape PhotographyLocation: DorsetDates: Fri 16th - Sun 18th Jan 2026 3 Days/2 Nights(Price includes B&amp;B and evening meal - Half Board)Participants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DorsetDescription: The Dorset Photography Workshop along the coastline is an exciting and great part of the UK to capture seascapes. We will work around Durdle Door and surrounding areas to make coastal images. Not limited to just the classic seascapes we can cover any genre or style of photography, beit B&amp;W or abstract this prehistoric coastline offers lots of variety and scope to suit all interests.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/83fecb77-55e2-4a1b-b532-efa4213e832a/limbs.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714681245814-0QW8DK4XQ18FM0JLBXYN/Harry+Rocks+%2301+-+Mar+2024.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/landscape-photography-workshops-nant-mill</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/dorset-landscape-photography-workshop</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>125</v>
+        <v>925</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape, Woodlands</t>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Landscape Photography Workshop Glencoe | 15 - 17 Mar 2021</t>
+          <t>URBAN ARCHITECTURE Photography Workshops - Coventry 16 Apr</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Join me on this landscape photography workshop Glencoe in the iconic mountain, lochs, waterfall areas of Scotland's Glencoe.SummaryLocation: Landscape Photography Workshop GlencoeDates: Fri 15th - Sun 17th Mar 2021 3 Days/2 NightsParticipants: Max 4Fitness: 4. Moderate-HardExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhoto Workshop Event Details: GlencoeDescription: The weather creates unique windows to capture, reflections, mist, stormy skies and subtle and strong colours - often all in the space of 1-2 days and sometimes just hours. We will visit approximately 2-3 locations a day in a weekend subject to the wishes of the group, time, weather and other factors on this Landscape Glencoe Photography Workshop</t>
+          <t>We will walk around several historic parts of Coventry in this 2.5hr Urban Architecture Photography Workshop, photographing buildings and ruins.SummaryLocation: Coventry City CentreDates: Thu 16 Apr 2026 - 18:15-20:15Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Street PhotographyDescription: Join me on this evening urban architecture photography workshop and learn how to see and design images at night! We will walk around several historic parts of Coventry in this 2.5hr workshop, photographing buildings and ruins - all to practise the art of dealing with tricky light, learning how to focus in the dark, long exposures and hopefully some good skies to help us capture that big space above us.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1b59cb9c-8434-469e-837f-90867a3f4fbd/Glencoe+Photography+Workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1658913526124-UHAZAOPDEELSFKC627FT/Coventry+1.jpg</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/landscape-photography-workshops-glencoe</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/urban-architecture-photography-workshops-coventry</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>875</v>
+        <v>65</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>'- weekend residential photo workshops</t>
+          <t>All Photography Workshops, - half-day photo workshops, Urban</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Landscape Photography Workshop NORFOLK - Coastal 13 - 15 Feb</t>
+          <t>Long Exposure Photography Workshop KENILWORTH Sunset</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Landscape Photography Workshop Norfolk - Coastal Photography Based Nr CromerSummary - Norfolk Photography WorkshopLocation: North Norfolk Coast - Cromer AreaDates: Fri 13th, 09:30am - Sun 15th Feb 2026, 14:00 - 3 Days/2 NightsParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: NorfolkDescription: Photography Workshop Norfolk - We will photograph the North Norfolk coastline ranging from Overstand and Cromer sea fronts and groynes to the atmospheric estuaries of Morston Quay and Blakeney Harbour. Beach huts, boats, estuaries, marshland, there is something for everyone on this 3 day North Norfolk photography workshop.Abandoned boats, windmills, nature reserve, sand dunes, coastal erosion, coastal path/estuary, optional seal trip and of course seascapes. The silting has left a fascinating landscape of marshes, sandhills and mud banks, with many creeks and channels twisting and turning their way through. Blakeney village is set on a small hill leading down to the harbour and has pretty flint cottages.</t>
+          <t>Sunset landscape long exposure photography workshop shoots around Kenilworth Castle - Warwickshire - Various Dates | Long Exposures | Open to all levels| Book TodaySummaryLocation: Warwickshire - KenilworthDates:Tue 31st Mar 2026 - 18:00 - 20:00Mon 13th Apr 2026 - 18:30 - 20:30Wed 6th May 2026 - 18:30 - 20:30Mon 11th May 2026 - 18:30 - 20:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: KenilworthDescription: Join me for this evening Long Exposure Photography Workshop, where we will shoot Kenilworth Castle ruins against the night sky.Kenilworth Castle, formerly one of the strongest fortifications in the country, was reinvented in the Elizabethan era by Robert Dudley as an impressive palace for his queen. Initially built in the 1120s by Geoffrey de Clinton, the Norman keep served as a basis for the structure, and King John later added an external stone wall, as well as a reservoir, to the complex.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1711625462292-PCMT7Q118L1X51MPSENJ/Wells+Next+To+Sea+%2302+-+Sep+2022.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1712472502735-OHOKCDKMCP1BAMQ0JQUA/kenilworth+defenses.jpg</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/landscape-photography-workshop-norfolk</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/long-exposure-photography-kenilworth</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1025</v>
+        <v>65</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>KERRY - Southern Ireland Photography Workshop - Mar 2026</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Photograph amazing areas in South Kerry, Dingle, and Killarney National Park on this 5-day Ireland photography workshopSummaryLocation: Dingle and Killarney - Kerry Southern IrelandDates: Thu 5th - Mon 10th Mar 2026 - 5 Days/4 NightsParticipants: Max 4Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DingleDescription: We will be based near Dingle and visit some of the top spots around the Dingle Peninsula, South Kerry (Skellig Ring) and finally Killarney National Park.There is a wide variety of subjects: Mountains, Lakes, Waterfalls, Trees/woodlands, Coastline, Rock Formations to name a few. All set in stunning scenery to wow any visitor and photographer. We will visit several locations in a day, some are short 10-15 min stops (layby shoots) others will require more time to perfectly capturing the perfect moment with tides and light.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1710060195646-WLFJL2H358FJD4GKV1CP/Coumeenoole+Strand+2.jpg</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/ireland-photography-workshops-dingle</t>
-        </is>
-      </c>
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
-        <v>1595</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
-        </is>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>MACRO Photography Workshops Warwickshire - Feb and Mar</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Abstract and Macro Photography Workshop . Learn about camera settings, lens use, controlling DoF and composition. Various Dates in Warwickshire | Half DaySummaryLocation: WarwickshireDates: Macro Photography WorkshopsMacro Photography - Sat 8 Nov 10:00 - 12:30Macro Photography - Sun 17 May 10:00 - 12:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: Digital Camera and Tripod, Zoom or Macro LensMacro Photography Workshop Event Details: Macro Photography and AbstractDescription: Join me at a Warwickshire location for this macro photography workshop: We will work around the area in search of macro and abstract shapes, form, colour, tone and patterns.There are beautiful trees with loads of interesting trunks - in addition, all around the area is water, stone and nature’s imprint creating some great textures, shapes, patterns and colours for us to explore and practise and learn macro photography.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/25c550a3-a242-4303-a11b-367dd7055dbe/Abstract%2Band%2BMacro%2BPhotography%2BWorkshops%2B%25282%2529.jpg</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/abstract-and-macro-photography-workshops</t>
-        </is>
-      </c>
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
         <v>65</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Macro &amp; Abstract</t>
-        </is>
-      </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -3030,30 +3054,30 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Christmas Photography Seasonal Workshops | Warwickshire</t>
+          <t>The Art of GARDEN PHOTOGRAPHY  - Coventry -  May and July</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Christmas photography workshops. A Leisurely Christmas photography walk and photograph the countryside - Lapworth or the Christmas lights Stratford Upon Avon photography- Warwickshire - Expert Advice GivenSummaryLocation: WarwickshireDates: 2024 DatesMonday 16 December 2024 - 18:30 - 21:00 - Stratford Upon Avon Evening ShootSunday, 29 December 2024 - 1 day Christmas Photo Walk08:45 15:15Break for pub lunch around 12:45 - Not includedParticipants: Max 6Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodChristmas Photography Workshop Event Details: Christmas PhotowalkDescription: Christmas photography Workshops - Will you need to escape the heat and fuss of Christmas festivities and start walking off some of the overindulgences of Christmas? Join me for the informal christmas photography photo walk and discover just how much there is to photograph as you walk around the countryside.</t>
+          <t>Join us for an unforgettable journey into macro and abstract on this garden photography workshop. Secure your spot today and embark on a transformative learning experience in garden photography.SummaryLocation: Coventry - CV4Dates:2026 DatesSun May 17th 2026 - 15:00 - 17:00Sun Jul 12th 2026 - 15:00 - 17:00Participants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Garden PhotographyDescription: Elevate Your Garden Photography Skills With Garden Photography WorkshopsImmerse yourself in the art of macro and abstract garden photography with our enriching workshops. Discover the nuances of camera settings, lens utilisation, and composition techniques tailored for capturing the captivating beauty of gardens.What to Expect:Dive into the intricacies of capturing stunning macro and abstract garden photography imagesLearn about specialised equipment and lens utilisation for breathtaking garden photographyEngage in hands-on assignments and receive personalised guidanceUnwind with afternoon tea as part of the enriching garden photography workshop experience</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1573822266360-1I7REB8B91RNZXW2PNKP/christmas-sparkle-photography-workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1709974516534-UJBRDOK5RXR4QNLPTECD/_-677.jpg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/christmas-photography-workshops</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/garden-photography-workshop</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape, Urban</t>
+          <t>All Photography Workshops, - half-day photo workshops, Flowering, Macro &amp; Abstract</t>
         </is>
       </c>
     </row>
@@ -3063,93 +3087,93 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Landscape YORKSHIRE DALES Photography Workshop - 10 - 12 Apr</t>
+          <t>GOWER Landscape Photography Wales - 30 Jan - 1 Feb 2026</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Yorkshire Dales Photography Workshop - Join me for this fantastic landscape workshop on limestone pavements and waterfalls.SummaryLocation: Yorkshire DalesDates: Fri 10th - Sun 12th Apr 2026 - 3 Days/2 NightsParticipants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Yorkshire DalesDescription: Yorkshire Dales photography workshop - An exciting 3-day residential photography workshop visiting some gorgeous spots around the Yorkshire Dales. Includes early morning shoots and a variety of moody and dramatic scenes for you to practice, learn and hone your photographic skills.</t>
+          <t>Stunning shorelines and beauty of South Wales and the Gower Peninsular. Max 3 places for this residential photography workshop - landscape photography walesSummaryLocation: South Wales - Gower PeninsularDates:Fri 30th Jan - Sun 1st Feb 2026 - 3 Days/2 NightsParticipants: Max 3Fitness: 3. HardExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodLandscape photography Wales Photography Workshop Event Details: GowerDescription: Just a short distance away from Swansea, the Gower Peninsula is a remarkable sight for landscape photography in Wales.Gower is a truly unique environment that boasts heathlands, limestone grasslands, brackish and freshwater marshes, dunes and oak woodlands. It is characterised by a distinct combination of features, including lofty limestone cliffs, sandy beaches, and jagged rocky shores that together form its southern coastline. In the north, the coast is a series of tranquil salt marshes and dune systems. This is a perfect location for landscape photography Wales</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714659095505-TB874TXCA6ADNDFC82FX/Muker+%2302+-+July+2021.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715702409761-590M3MJ45KYXBDH1KSM0/Gower+%2305+-+May+2024.jpg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/yorkshire-dales-photography-workshops</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/landscape-photography-wales-photo-workshop</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
+          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SUFFOLK Landscape Photography Workshops - 21st - 23rd Nov</t>
+          <t>Fireworks Photography Workshop | Long Exposure | Kenilworth</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Join us for an inspiring Suffolk landscape photography workshop, where you'll have the opportunity to create stunning long exposures during breathtaking sunrises and vibrant sunsets. We will explore picturesque quays, serene estuaries, intriguing piers, and tranquil marshes, all while capturing the beauty of charming beach huts and ancient woodlands. Emphasising artistic expression, we'll also delve into the world of black and white photography, allowing you to bring a classic touch to your coastal images.SummaryLocation: Suffolk - East Anglia / Southwold/Aldeburgh AreaDates: Fri 21st 09:30 - Sun 23rd 14:30 Nov 2025 - 3 Days/2 NightsParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: SuffolkDescription: Suffolk Landscape Photography Workshop - The Suffolk coastline offers a wide variety of views and caters for all styles and ways of interpreting the land and seascapes. There will be a rich mixture of coastal shoreline vista to shoreline architecture including piers, beach huts and iconic sea defence structures.</t>
+          <t>Fireworks Photography Workshop - Long exposure and fireworks. Learn about camera settings, exposure use and composition.SummaryLocation: KenilworthDates: TBCParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: FireworksDescription: Fireworks photography workshop Kenilworth. We will be photographing from outside the castle walls so you don't need to by a ticket for the display. Kenilworth castle acts an excellent backdrop for the amazing fireworks display organised by the Round Table every year.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714650055069-5DPM44ERXSX234XAGLA9/Southwold+%2304+-+February+2024.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1713518270092-GJSBASA0ZLL4NBMCK355/Kenilworth+Fireworks+2017+-+2.jpg</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/suffolk-landscape-photography-workshops</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/fireworks-photography-workshop-kenilworth</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>995</v>
+        <v>75</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>coastal, - weekend residential photo workshops</t>
+          <t>All Photography Workshops, - half-day photo workshops</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NORTH YORKSHIRE Landscape Photography Workshop - Mar 2026</t>
+          <t>EXMOOR Photography Workshop - Sat 23rd - Sun 24th May 2026</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>An exciting 4-day residential Yorkshire Landscape Photography Workshop - visiting some of the iconic spots around the North Yorkshire Coast and MoorsSummary - Photography Workshops YorkshireLocation: North YorkshireDates:Thu 26 Mar - Sun 29 Mar 2026 - 4 Days/3 NightsParticipants: Max 3Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: North YorkshireDescription: North Yorkshire Landscape Photography - We will be based on the northeast coast of England (North Yorkshire and the Moors) and visit some of the iconic coastlines of Staithes, Runswick, Whitby and more. We will concentrate our workshop time along the impressive coastline and work from sunrise to sunset to ensure we make use of the best light, tides and empty beaches. This is the perfect workshop for practising long exposures and working at sunrise and sunsets to get those iconic views on the coast.</t>
+          <t>Lynmouth - Exmoor Photography Workshop - Join me for this exciting and inspiring trip to explore and capture the stunning coastal landscapes and breathtaking natural beauty of North Devon.SummaryLocation: Lynmouth - ExmoorDates: Sat 23rd 10:00 - Sun 24th May 15:00 2026 2 Days/1 NightParticipants:Max 4 (1 Car, transport between locations included)Fitness: 1. Easy (5-15 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodExmoor Photography Workshop Event Details: LynmouthDescription: Lynmouth and the surrounding area in Exmoor - North Devon, provide beautiful little secluded bays to shoot rock formations, seascapes and whatever your creative vision allows. We visit many small bays and coves during the weekend and some impressive rock formations in the "valley of rocks" nearby.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707212716744-VYD7AYV9U6N6VEZ3C4D1/North+Yorkshire+Photography+Workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714638630127-79B9OMJPFF60L8Q9VLJL/Timeless+Memories.jpg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/north-yorkshire-landscape-photography</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/exmoor-photography-workshops-lynmouth</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1495</v>
+        <v>575</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -3160,150 +3184,110 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>WALES Photography Workshop | Lake Vyrnwy 29 - 30 Nov</t>
+          <t>PEAK DISTRICT HEATHER Photography Workshops - 15-16 Aug</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Join me for this fantastic Wales photography workshop of woodlands, lakes and waterfalls in Mid-WalesLocation: Wales - Dee ValleyDates: Sat 29th - Sun 30th Nov 2025 - 2 Days/1 NightParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodWales Photography Workshop Event Details: Lake VyrnwyDescription: Pistyll Rhaeadr is an enchanting waterfall in the Berwyn Mountains, just inside Wales, west of Oswestry and Shrewsbury. At 240ft (73m) high, Britain's tallest single-drop waterfall (with a drop 20m higher than Niagara Falls) captivates all who visit her—known as one of the seven wonders of Wales with its three stages of drops. Generation after generation take in the spirit and presence of this remarkable place. Surrounding the falls is a viewing platform, bridge, and woodland alongside the Afon Rhaeadr.Pistyll Rhaeadr offers an excellent opportunity to practice long exposure photography of moving water with many viewpoints of the falls and also down at water level with its laminated slate beds and plenty of mini falls and closer-up compositions to make.Lake Vyrnwy is a reservoir in Powys, Wales, built in the 1880s for Liverpool Corporation Waterworks to supply Liverpool with fresh water. It flooded the head of the Vyrnwy valley and submerged the village of Llanwddyn. These two locations to give you a real taste of Wales photography</t>
+          <t>Join me for the Peak District heather displays over this iconic landscape in August - 4hr Heather Peak District Photography Workshops | All levels welcomeSummaryLocation: Peak District - Derbyshire/Staffordshire2026 - Sat 15th Aug 18:15 21:15 - Derbyshire Surprise View2026 - Sun 17th Aug 05:45 08:45 - Staffordshire - The RoachesParticipants: Max 6Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: HeathersDescription: Peak District heather WorkshopsSurprise View, perched atop Hathersage, is one of the best viewpoints in the Peak District. It's a perfect spot to admire the sunset and, on a clear night, is a designated 'Dark Skies' stargazing location. To access this special place, head uphill in a northerly direction from the car park and find the strangely shaped Mother Cap stone. Then, marvel at the vivid stars filling the Peak District's dark skies.The Roaches, with Hen Cloud and Ramshaw Rocks, form a gritstone escarpment that marks the Peak's south-western edge. Best viewed from the approach along the Leek road, they stand as a line of silent sentinels guarding the entrance to the Peak District, worn into fantastic shapes by the elements.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714636535694-5SWM865PVWA9MMT8LCQB/Dawn+at+Lake+Vyrnwy_.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707246605883-FVZKLJN54Z455J1Q13CV/peak+district+heather.jpg</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/wales-photography-workshop-pistyll-rhaeadr</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/peak-district-heather-photography-workshop</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>595</v>
+        <v>145</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
+          <t>All Photography Workshops, - half-day photo workshops, Landscape, Flowering</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Landscape Photography SNOWDONIA - Sat 7th - Sun 8th Mar 2026</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Join me on this landscape photography Snowdonia workshop in the iconic mountains, quarries and landscape of Snowdonia national park.Summary - Snowdonia Landscape photography workshopLocation:Wales - Snowdonia National ParkDates: Sat 7th - Sun 8th Mar 2026 - 2 Days/1 NightParticipants: Max 4 (1 Car, transport between locations included)Fitness: 2. Moderate (15-30 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: SnowdoniaDescription: Snowdonia National Park, located in North Wales, offers a diverse range of landscapes that will inspire and challenge any photographer. Snowdonia has everything from rugged mountains, flowing rivers, serene lakes, and ancient quarries.The park is home to some of the highest mountain ranges in England and Wales, providing a stunning backdrop for your photography journey. The terrain and landscape of Snowdonia, with its waterfalls, are great for long exposure techniques, the quarries and slate mines provide a starker but striking landscape to create images from the historic mining relics in the area, and last but not least, there are majestic lakes with reflections and mountains to practise and be inspired by to create compelling compositions from this rugged and serene landscape.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1711625824431-22D7V1RNKR8H2LBRW4Z9/Snowdonia+%2301+-+Oct+2023.jpg</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/landscape-photography-snowdonia-workshops</t>
-        </is>
-      </c>
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
-        <v>595</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Landscape</t>
-        </is>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>DORSET Landscape Photography Workshop Purbeck 16 - 18 Jan</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Join me on this 3-day/2-night fantastic Dorset Photography workshop along the Jurassic coastline of Dorset - PurbeckSummary - Dorset Landscape PhotographyLocation: DorsetDates: Fri 16th - Sun 18th Jan 2026 3 Days/2 Nights(Price includes B&amp;B and evening meal - Half Board)Participants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DorsetDescription: The Dorset Photography Workshop along the coastline is an exciting and great part of the UK to capture seascapes. We will work around Durdle Door and surrounding areas to make coastal images. Not limited to just the classic seascapes we can cover any genre or style of photography, beit B&amp;W or abstract this prehistoric coastline offers lots of variety and scope to suit all interests.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714681245814-0QW8DK4XQ18FM0JLBXYN/Harry+Rocks+%2301+-+Mar+2024.jpg</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/dorset-landscape-photography-workshop</t>
-        </is>
-      </c>
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
-        <v>925</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>URBAN ARCHITECTURE Photography Workshops - Coventry 16 Apr</t>
+          <t>SEZINCOTE Garden Photography Workshop - Gloucs 29 May</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>We will walk around several historic parts of Coventry in this 2.5hr Urban Architecture Photography Workshop, photographing buildings and ruins.SummaryLocation: Coventry City CentreDates: Thu 16 Apr 2026 - 18:15-20:15Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Street PhotographyDescription: Join me on this evening urban architecture photography workshop and learn how to see and design images at night! We will walk around several historic parts of Coventry in this 2.5hr workshop, photographing buildings and ruins - all to practise the art of dealing with tricky light, learning how to focus in the dark, long exposures and hopefully some good skies to help us capture that big space above us.</t>
+          <t>Macro and abstract Garden photography workshop. Camera settings, controlling DoF and composition at this Mughal Indian palace in the Cotswolds.SummaryLocation: Moreton on Marsh (Sezincote) - GloucestershireDates: Thu 29th May 2026 - 11:00 - 13:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Garden PhotographyDescription: Sezincote is a Mughal Indian palace set in the Cotswold Hills, created by the nabob Charles Cockerell in 1805.The house is surmounted by a copper dome and minarets, and set in a picturesque water garden with seven pools, waterfalls, a grotto and a temple to Surya, the Hindu Sun God. A curving Orangery frames the Persian Garden of Paradise.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1658913526124-UHAZAOPDEELSFKC627FT/Coventry+1.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715077805264-XJYPE427XFHYBMW7L4TL/_.jpg</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/urban-architecture-photography-workshops-coventry</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/sezincote-garden-photography-workshop</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Urban</t>
+          <t>All Photography Workshops, - half-day photo workshops, Flowering, Macro &amp; Abstract</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Long Exposure Photography Workshop KENILWORTH Sunset</t>
+          <t>The Secret of WOODLAND PHOTOGRAPHY- 1-Day Jan, Apr, Aug, Oct</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sunset landscape long exposure photography workshop shoots around Kenilworth Castle - Warwickshire - Various Dates | Long Exposures | Open to all levels| Book TodaySummaryLocation: Warwickshire - KenilworthDates:Tue 31st Mar 2026 - 18:00 - 20:00Mon 13th Apr 2026 - 18:30 - 20:30Wed 6th May 2026 - 18:30 - 20:30Mon 11th May 2026 - 18:30 - 20:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: KenilworthDescription: Join me for this evening Long Exposure Photography Workshop, where we will shoot Kenilworth Castle ruins against the night sky.Kenilworth Castle, formerly one of the strongest fortifications in the country, was reinvented in the Elizabethan era by Robert Dudley as an impressive palace for his queen. Initially built in the 1120s by Geoffrey de Clinton, the Norman keep served as a basis for the structure, and King John later added an external stone wall, as well as a reservoir, to the complex.</t>
+          <t>Simplifying Woodland Photography | Unlocking the Secrets to Capturing the Beauty of woods | Three sessions - Theory - Practical - Editing in one daySummaryLocation: Coventry - CV4 9HWDates: - 10:00 - 16:00Sun 11th Jan - WinterSun 19th Apr - SpringSun 30 Aug - SummerSun 18th Oct - AutumnParticipants: Max 3Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: Digital Camera and TripodPhotography Workshop Event Details: Woodland Photography MasterclassDescription: It will be different from other workshops in the format as it will be divided into separate sessions during the day to tackle theory, set-up, shooting, image review, and post-production.A theory session and discussion on woodland photography and its challenges and some answers, followed by practical advice on settings, lenses, equipment, etc.A presentation on developing creative vision and simplification in woodland settingsA 2hr woodland exploration and walk-making compositions and turning theory into practice in the field.Initial image reviews and critiques to shortlist images to editDemonstration, advice and post-production of your woodland images</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1712472502735-OHOKCDKMCP1BAMQ0JQUA/kenilworth+defenses.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/52f3e506-547d-4b13-bcff-d770db619091/Batsford+%2314+-+Oct+2021.jpg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/long-exposure-photography-kenilworth</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/secrets-of-woodland-photography-workshop</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape</t>
+          <t>All Photography Workshops, - one day photo workshops, Macro &amp; Abstract, Woodlands</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3297,7 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F187" t="inlineStr"/>
     </row>
@@ -3323,7 +3307,7 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F188" t="inlineStr"/>
     </row>
@@ -3333,425 +3317,35 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Brandon Marsh Photography Workshop | Nature Reserve Coventry</t>
+          <t>DARTMOOR Photography Workshop - Landscapes - 9th - 11th Oct</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Brandon Marsh Nature Reserve Photography Workshop - outskirts of Coventry - offers a variety of subjects to shoot close-up/macro or wider views.</t>
+          <t>Join me on this Landscape Dartmoor Photography Workshop - in the iconic woodlands, and landscape of Dartmoor TorsSummaryLocation: Dartmoor - South DevonDates: Fri 9th - Sun 11th Oct 2026Participants: Max 4Fitness: 3. HardExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DartmoorDescription: Dartmoor Photography Workshop - Nestled amidst the stunning landscapes of southwest England, Dartmoor National Park presents a captivating playground for photographers of all levels. This diverse and dynamic environment boasts rugged moors, ancient woodlands, dramatic granite tors, mysterious valleys, and serene rivers – all waiting to be captured and immortalised in your photographs. From sunrise to sunset, each moment offers a spectacle of natural wonders ready to be transformed into breathtaking images.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707214623566-6JWS3BTWNOGHF60YTLIU/Photography+Workshop.jpg</t>
+          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707237329064-99H533NMXCONH5J276LM/dartmoor+photography+workshop.jpg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.alanranger.com/brandon-marsh-nature-reserve-photography-workshop</t>
+          <t>https://www.alanranger.com/photo-workshops-uk/dartmoor-photography-landscape-workshop</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50</v>
+        <v>875</v>
       </c>
       <c r="F190" t="inlineStr">
-        <is>
-          <t>All Photography Workshops</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOMERSET Landscape Photography Workshops 9 - 11 May 2025</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2 Nights/3 Days -day residential Somerset landscape photography workshop visiting some of the iconic spots around the Somerset and Wiltshire countySummaryLocation: SomersetDates: Fri 9th - Sun 11th May 2025 - 3 Days/2 NightsParticipants: Max 4Fitness: 2. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: SomersetDescription: We will be based in the heart of Somerset with easy access to many beautiful locations ranging from marshes and nature reserves, iconic hills and gorges to woodlands and maybe some coastline too,</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707309019991-SB0FXQX0176H2D3ZNVBZ/landscape+photography+workshop.jpg</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/somerset-landscape-photography-workshops</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>895</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>The Art of GARDEN PHOTOGRAPHY  - Coventry -  May and July</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Join us for an unforgettable journey into macro and abstract on this garden photography workshop. Secure your spot today and embark on a transformative learning experience in garden photography.SummaryLocation: Coventry - CV4Dates:2026 DatesSun May 17th 2026 - 15:00 - 17:00Sun Jul 12th 2026 - 15:00 - 17:00Participants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Garden PhotographyDescription: Elevate Your Garden Photography Skills With Garden Photography WorkshopsImmerse yourself in the art of macro and abstract garden photography with our enriching workshops. Discover the nuances of camera settings, lens utilisation, and composition techniques tailored for capturing the captivating beauty of gardens.What to Expect:Dive into the intricacies of capturing stunning macro and abstract garden photography imagesLearn about specialised equipment and lens utilisation for breathtaking garden photographyEngage in hands-on assignments and receive personalised guidanceUnwind with afternoon tea as part of the enriching garden photography workshop experience</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1709974516534-UJBRDOK5RXR4QNLPTECD/_-677.jpg</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/garden-photography-workshop</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>35</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Flowering, Macro &amp; Abstract</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="n">
-        <v>35</v>
-      </c>
-      <c r="F193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>GOWER Landscape Photography Wales - 30 Jan - 1 Feb 2026</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Stunning shorelines and beauty of South Wales and the Gower Peninsular. Max 3 places for this residential photography workshop - landscape photography walesSummaryLocation: South Wales - Gower PeninsularDates:Fri 30th Jan - Sun 1st Feb 2026 - 3 Days/2 NightsParticipants: Max 3Fitness: 3. HardExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodLandscape photography Wales Photography Workshop Event Details: GowerDescription: Just a short distance away from Swansea, the Gower Peninsula is a remarkable sight for landscape photography in Wales.Gower is a truly unique environment that boasts heathlands, limestone grasslands, brackish and freshwater marshes, dunes and oak woodlands. It is characterised by a distinct combination of features, including lofty limestone cliffs, sandy beaches, and jagged rocky shores that together form its southern coastline. In the north, the coast is a series of tranquil salt marshes and dune systems. This is a perfect location for landscape photography Wales</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715702409761-590M3MJ45KYXBDH1KSM0/Gower+%2305+-+May+2024.jpg</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/landscape-photography-wales-photo-workshop</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>825</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Fireworks Photography Workshop | Long Exposure | Kenilworth</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Fireworks Photography Workshop - Long exposure and fireworks. Learn about camera settings, exposure use and composition.SummaryLocation: KenilworthDates: TBCParticipants: Max 4Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: FireworksDescription: Fireworks photography workshop Kenilworth. We will be photographing from outside the castle walls so you don't need to by a ticket for the display. Kenilworth castle acts an excellent backdrop for the amazing fireworks display organised by the Round Table every year.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1713518270092-GJSBASA0ZLL4NBMCK355/Kenilworth+Fireworks+2017+-+2.jpg</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/fireworks-photography-workshop-kenilworth</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>75</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>North Cotswolds Landscape Photography Workshop | 1 Day</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>One day Cotswolds landscape photography workshops - North Cotswolds Countryside | All Levels Welcome | Max 4 Places | Transport Included | Sun 14th May 06:30 - 14:00SummaryLocation: CotswoldsDates: Sun May 14th 2023 - 06:30 - 14:00Participants: Max 4Fitness: 2. Easy-ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodCotswolds Landscape Photography Workshop Event Details: CotswoldsDescription: Cotswolds Landscape photography allows us to freeze moments in time, preserving the timeless beauty of nature. When photographing the quaint villages and picturesque countryside of the Cotswolds, there are several key elements to consider to encapsulate the essence of this idyllic region.1. Golden Stone ArchitectureThe distinctive honey-colored limestone buildings characteristic of the Cotswolds create a stunning contrast against the lush greenery. Photographing these structures in the soft glow of dawn or the warm hues of sunset can add a captivating allure to the composition.2. Rolling CountrysideThe undulating hills and meandering streams of the Cotswolds offer endless opportunities for capturing the serene beauty of the rural landscape. Utilizing leading lines and the play of light and shadow can enhance the depth and dimension of these scenes.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1673276231738-ZM3T9H8TX8U5H0T841B7/autumn+mist.jpg</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/cotswolds-landscape-photography-workshop</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>125</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - one day photo workshops, Landscape</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Shropshire Landscape Photography Workshop | Shrewsbury</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>One day Shropshire landscape photography workshop in the countryside | Max 4 Places | Transport Included | All Levels WelcomeSummaryLocation: ShropshireDates: Sun 11th June 2023 - 06:30 - 1400Participants: Max 4Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: ShropshireDescription: Embarking on a Shropshire landscape photography workshop promises to be an enriching experience, allowing participants to hone their craft amidst the breathtaking scenery of this captivating region. Through the guidance of expert mentors and the camaraderie of fellow photographers, attendees can elevate their skills while immortalizing the timeless allure of Shropshire's landscape.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1708246697809-TOQRFQ21APSQU4016DDJ/landscape+photography+workshops+%282%29.jpg</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/shropshire-landscape-photography-workshops</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>125</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - one day photo workshops, Landscape</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>EXMOOR Photography Workshop - Sat 23rd - Sun 24th May 2026</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Lynmouth - Exmoor Photography Workshop - Join me for this exciting and inspiring trip to explore and capture the stunning coastal landscapes and breathtaking natural beauty of North Devon.SummaryLocation: Lynmouth - ExmoorDates: Sat 23rd 10:00 - Sun 24th May 15:00 2026 2 Days/1 NightParticipants:Max 4 (1 Car, transport between locations included)Fitness: 1. Easy (5-15 min walks)Experience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodExmoor Photography Workshop Event Details: LynmouthDescription: Lynmouth and the surrounding area in Exmoor - North Devon, provide beautiful little secluded bays to shoot rock formations, seascapes and whatever your creative vision allows. We visit many small bays and coves during the weekend and some impressive rock formations in the "valley of rocks" nearby.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1714638630127-79B9OMJPFF60L8Q9VLJL/Timeless+Memories.jpg</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/exmoor-photography-workshops-lynmouth</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>575</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>coastal, All Photography Workshops, - weekend residential photo workshops</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>PEAK DISTRICT HEATHER Photography Workshops - 15-16 Aug</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Join me for the Peak District heather displays over this iconic landscape in August - 4hr Heather Peak District Photography Workshops | All levels welcomeSummaryLocation: Peak District - Derbyshire/Staffordshire2026 - Sat 15th Aug 18:15 21:15 - Derbyshire Surprise View2026 - Sun 17th Aug 05:45 08:45 - Staffordshire - The RoachesParticipants: Max 6Fitness: 3. ModerateExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: HeathersDescription: Peak District heather WorkshopsSurprise View, perched atop Hathersage, is one of the best viewpoints in the Peak District. It's a perfect spot to admire the sunset and, on a clear night, is a designated 'Dark Skies' stargazing location. To access this special place, head uphill in a northerly direction from the car park and find the strangely shaped Mother Cap stone. Then, marvel at the vivid stars filling the Peak District's dark skies.The Roaches, with Hen Cloud and Ramshaw Rocks, form a gritstone escarpment that marks the Peak's south-western edge. Best viewed from the approach along the Leek road, they stand as a line of silent sentinels guarding the entrance to the Peak District, worn into fantastic shapes by the elements.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707246605883-FVZKLJN54Z455J1Q13CV/peak+district+heather.jpg</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/peak-district-heather-photography-workshop</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>145</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Landscape, Flowering</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="n">
-        <v>145</v>
-      </c>
-      <c r="F200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="n">
-        <v>200</v>
-      </c>
-      <c r="F201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>SEZINCOTE Garden Photography Workshop - Gloucs 29 May</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Macro and abstract Garden photography workshop. Camera settings, controlling DoF and composition at this Mughal Indian palace in the Cotswolds.SummaryLocation: Moreton on Marsh (Sezincote) - GloucestershireDates: Thu 29th May 2026 - 11:00 - 13:30Participants: Max 6Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: Garden PhotographyDescription: Sezincote is a Mughal Indian palace set in the Cotswold Hills, created by the nabob Charles Cockerell in 1805.The house is surmounted by a copper dome and minarets, and set in a picturesque water garden with seven pools, waterfalls, a grotto and a temple to Surya, the Hindu Sun God. A curving Orangery frames the Persian Garden of Paradise.</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1715077805264-XJYPE427XFHYBMW7L4TL/_.jpg</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/sezincote-garden-photography-workshop</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>55</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - half-day photo workshops, Flowering, Macro &amp; Abstract</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>The Secret of WOODLAND PHOTOGRAPHY- 1-Day Jan, Apr, Aug, Oct</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Simplifying Woodland Photography | Unlocking the Secrets to Capturing the Beauty of woods | Three sessions - Theory - Practical - Editing in one daySummaryLocation: Coventry - CV4 9HWDates: - 10:00 - 16:00Sun 11th Jan - WinterSun 19th Apr - SpringSun 30 Aug - SummerSun 18th Oct - AutumnParticipants: Max 3Fitness: 1. EasyExperience Level: Beginner to AdvancedEquipment Needed: Digital Camera and TripodPhotography Workshop Event Details: Woodland Photography MasterclassDescription: It will be different from other workshops in the format as it will be divided into separate sessions during the day to tackle theory, set-up, shooting, image review, and post-production.A theory session and discussion on woodland photography and its challenges and some answers, followed by practical advice on settings, lenses, equipment, etc.A presentation on developing creative vision and simplification in woodland settingsA 2hr woodland exploration and walk-making compositions and turning theory into practice in the field.Initial image reviews and critiques to shortlist images to editDemonstration, advice and post-production of your woodland images</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/52f3e506-547d-4b13-bcff-d770db619091/Batsford+%2314+-+Oct+2021.jpg</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/secrets-of-woodland-photography-workshop</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>125</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>All Photography Workshops, - one day photo workshops, Macro &amp; Abstract, Woodlands</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="n">
-        <v>125</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="n">
-        <v>125</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="n">
-        <v>125</v>
-      </c>
-      <c r="F206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>DARTMOOR Photography Workshop - Landscapes - 9th - 11th Oct</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Join me on this Landscape Dartmoor Photography Workshop - in the iconic woodlands, and landscape of Dartmoor TorsSummaryLocation: Dartmoor - South DevonDates: Fri 9th - Sun 11th Oct 2026Participants: Max 4Fitness: 3. HardExperience Level: Beginner to AdvancedEquipment Needed: DSLR or Mirrorless Camera and TripodPhotography Workshop Event Details: DartmoorDescription: Dartmoor Photography Workshop - Nestled amidst the stunning landscapes of southwest England, Dartmoor National Park presents a captivating playground for photographers of all levels. This diverse and dynamic environment boasts rugged moors, ancient woodlands, dramatic granite tors, mysterious valleys, and serene rivers – all waiting to be captured and immortalised in your photographs. From sunrise to sunset, each moment offers a spectacle of natural wonders ready to be transformed into breathtaking images.</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>https://images.squarespace-cdn.com/content/v1/5013f4b2c4aaa4752ac69b17/1707237329064-99H533NMXCONH5J276LM/dartmoor+photography+workshop.jpg</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>https://www.alanranger.com/dartmoor-photography-landscape-workshop</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>875</v>
-      </c>
-      <c r="F207" t="inlineStr">
         <is>
           <t>All Photography Workshops, - weekend residential photo workshops, Landscape</t>
         </is>
